--- a/data-migration/xlsx_1900-/1920_Winter.xlsx
+++ b/data-migration/xlsx_1900-/1920_Winter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\TEMP REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A72A597B-1C77-4AA9-B669-636173BF2BE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E7D5415-16E7-45E4-9CAA-4EDB5391E1A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15930" yWindow="-21600" windowWidth="26010" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3739,9 +3739,6 @@
     <t>egger_a</t>
   </si>
   <si>
-    <t>escher_a</t>
-  </si>
-  <si>
     <t>fritzsche_h</t>
   </si>
   <si>
@@ -3862,18 +3859,12 @@
     <t>bernheim_j</t>
   </si>
   <si>
-    <t>walthard _m</t>
-  </si>
-  <si>
     <t>meyerrueegg_h</t>
   </si>
   <si>
     <t>meyerwirz_e</t>
   </si>
   <si>
-    <t>anderes _e</t>
-  </si>
-  <si>
     <t>staehli_e</t>
   </si>
   <si>
@@ -3883,9 +3874,6 @@
     <t>zangger_h</t>
   </si>
   <si>
-    <t>nager _fr</t>
-  </si>
-  <si>
     <t>hottinger_r</t>
   </si>
   <si>
@@ -4217,6 +4205,18 @@
   </si>
   <si>
     <t>hess_w</t>
+  </si>
+  <si>
+    <t>escher_a2</t>
+  </si>
+  <si>
+    <t>walthard_m</t>
+  </si>
+  <si>
+    <t>anderes_e</t>
+  </si>
+  <si>
+    <t>nager_fr</t>
   </si>
 </sst>
 </file>
@@ -4560,8 +4560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N460"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A170" workbookViewId="0">
-      <selection activeCell="H185" sqref="H185"/>
+    <sheetView tabSelected="1" topLeftCell="A155" workbookViewId="0">
+      <selection activeCell="F164" sqref="F164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4595,7 +4595,7 @@
         <v>1228</v>
       </c>
       <c r="I1" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -4621,7 +4621,7 @@
         <v>1229</v>
       </c>
       <c r="I2" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -4647,10 +4647,10 @@
         <v>1230</v>
       </c>
       <c r="I3" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
       <c r="J3" t="s">
-        <v>1383</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -4673,10 +4673,10 @@
         <v>929</v>
       </c>
       <c r="H4" t="s">
-        <v>1378</v>
+        <v>1374</v>
       </c>
       <c r="I4" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -4702,7 +4702,7 @@
         <v>1232</v>
       </c>
       <c r="I5" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -4725,10 +4725,10 @@
         <v>931</v>
       </c>
       <c r="H6" t="s">
-        <v>1378</v>
+        <v>1374</v>
       </c>
       <c r="I6" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -4754,7 +4754,7 @@
         <v>1232</v>
       </c>
       <c r="I7" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -4780,10 +4780,10 @@
         <v>1230</v>
       </c>
       <c r="I8" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
       <c r="J8" t="s">
-        <v>1383</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -4809,7 +4809,7 @@
         <v>1228</v>
       </c>
       <c r="I9" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -4832,10 +4832,10 @@
         <v>935</v>
       </c>
       <c r="H10" t="s">
-        <v>1378</v>
+        <v>1374</v>
       </c>
       <c r="I10" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -4861,7 +4861,7 @@
         <v>1228</v>
       </c>
       <c r="I11" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -4887,7 +4887,7 @@
         <v>1231</v>
       </c>
       <c r="I12" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -4913,7 +4913,7 @@
         <v>1231</v>
       </c>
       <c r="I13" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -4939,7 +4939,7 @@
         <v>1229</v>
       </c>
       <c r="I14" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -4965,7 +4965,7 @@
         <v>1233</v>
       </c>
       <c r="I15" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -4991,7 +4991,7 @@
         <v>1229</v>
       </c>
       <c r="I16" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -5017,10 +5017,10 @@
         <v>1230</v>
       </c>
       <c r="I17" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
       <c r="J17" t="s">
-        <v>1383</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -5046,7 +5046,7 @@
         <v>1234</v>
       </c>
       <c r="I18" t="s">
-        <v>1382</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -5072,7 +5072,7 @@
         <v>1231</v>
       </c>
       <c r="I19" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -5098,10 +5098,10 @@
         <v>1230</v>
       </c>
       <c r="I20" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
       <c r="J20" t="s">
-        <v>1383</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -5127,7 +5127,7 @@
         <v>1228</v>
       </c>
       <c r="I21" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -5153,7 +5153,7 @@
         <v>1231</v>
       </c>
       <c r="I22" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -5179,7 +5179,7 @@
         <v>1233</v>
       </c>
       <c r="I23" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -5205,7 +5205,7 @@
         <v>1233</v>
       </c>
       <c r="I24" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -5231,10 +5231,10 @@
         <v>1230</v>
       </c>
       <c r="I25" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
       <c r="J25" t="s">
-        <v>1383</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -5260,7 +5260,7 @@
         <v>1235</v>
       </c>
       <c r="I26" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -5286,7 +5286,7 @@
         <v>1236</v>
       </c>
       <c r="I27" t="s">
-        <v>1382</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -5309,10 +5309,10 @@
         <v>950</v>
       </c>
       <c r="H28" t="s">
-        <v>1377</v>
+        <v>1373</v>
       </c>
       <c r="I28" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
@@ -5335,10 +5335,10 @@
         <v>951</v>
       </c>
       <c r="H29" t="s">
-        <v>1377</v>
+        <v>1373</v>
       </c>
       <c r="I29" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
@@ -5364,7 +5364,7 @@
         <v>1237</v>
       </c>
       <c r="I30" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
@@ -5390,7 +5390,7 @@
         <v>1237</v>
       </c>
       <c r="I31" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
@@ -5416,7 +5416,7 @@
         <v>1238</v>
       </c>
       <c r="I32" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
@@ -5442,7 +5442,7 @@
         <v>1238</v>
       </c>
       <c r="I33" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
@@ -5468,7 +5468,7 @@
         <v>1237</v>
       </c>
       <c r="I34" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
@@ -5491,10 +5491,10 @@
         <v>956</v>
       </c>
       <c r="H35" t="s">
-        <v>1239</v>
+        <v>1395</v>
       </c>
       <c r="I35" t="s">
-        <v>1382</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
@@ -5520,7 +5520,7 @@
         <v>1238</v>
       </c>
       <c r="I36" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
@@ -5546,7 +5546,7 @@
         <v>1237</v>
       </c>
       <c r="I37" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
@@ -5569,10 +5569,10 @@
         <v>959</v>
       </c>
       <c r="H38" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="I38" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
@@ -5595,10 +5595,10 @@
         <v>960</v>
       </c>
       <c r="H39" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="I39" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
@@ -5624,7 +5624,7 @@
         <v>1235</v>
       </c>
       <c r="I40" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
@@ -5647,10 +5647,10 @@
         <v>962</v>
       </c>
       <c r="H41" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="I41" t="s">
-        <v>1385</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
@@ -5673,10 +5673,10 @@
         <v>963</v>
       </c>
       <c r="H42" t="s">
-        <v>1363</v>
+        <v>1359</v>
       </c>
       <c r="I42" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
@@ -5699,10 +5699,10 @@
         <v>964</v>
       </c>
       <c r="H43" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="I43" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
@@ -5725,10 +5725,10 @@
         <v>965</v>
       </c>
       <c r="H44" t="s">
-        <v>1364</v>
+        <v>1360</v>
       </c>
       <c r="I44" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
@@ -5751,10 +5751,10 @@
         <v>966</v>
       </c>
       <c r="H45" t="s">
-        <v>1364</v>
+        <v>1360</v>
       </c>
       <c r="I45" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
@@ -5777,10 +5777,10 @@
         <v>967</v>
       </c>
       <c r="H46" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="I46" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
@@ -5803,10 +5803,10 @@
         <v>968</v>
       </c>
       <c r="H47" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="I47" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
@@ -5829,10 +5829,10 @@
         <v>969</v>
       </c>
       <c r="H48" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="I48" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
@@ -5855,10 +5855,10 @@
         <v>970</v>
       </c>
       <c r="H49" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="I49" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
@@ -5881,10 +5881,10 @@
         <v>971</v>
       </c>
       <c r="H50" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="I50" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
@@ -5907,10 +5907,10 @@
         <v>972</v>
       </c>
       <c r="H51" t="s">
-        <v>1365</v>
+        <v>1361</v>
       </c>
       <c r="I51" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
@@ -5933,10 +5933,10 @@
         <v>973</v>
       </c>
       <c r="H52" t="s">
-        <v>1366</v>
+        <v>1362</v>
       </c>
       <c r="I52" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
@@ -5959,10 +5959,10 @@
         <v>974</v>
       </c>
       <c r="H53" t="s">
-        <v>1365</v>
+        <v>1361</v>
       </c>
       <c r="I53" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
@@ -5985,10 +5985,10 @@
         <v>975</v>
       </c>
       <c r="H54" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="I54" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
@@ -6011,13 +6011,13 @@
         <v>976</v>
       </c>
       <c r="H55" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="I55" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
       <c r="J55" t="s">
-        <v>1383</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
@@ -6040,10 +6040,10 @@
         <v>977</v>
       </c>
       <c r="H56" t="s">
-        <v>1366</v>
+        <v>1362</v>
       </c>
       <c r="I56" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
@@ -6066,10 +6066,10 @@
         <v>978</v>
       </c>
       <c r="H57" t="s">
-        <v>1367</v>
+        <v>1363</v>
       </c>
       <c r="I57" t="s">
-        <v>1385</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
@@ -6092,10 +6092,10 @@
         <v>979</v>
       </c>
       <c r="H58" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="I58" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
@@ -6118,10 +6118,10 @@
         <v>980</v>
       </c>
       <c r="H59" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="I59" t="s">
-        <v>1386</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
@@ -6144,10 +6144,10 @@
         <v>981</v>
       </c>
       <c r="H60" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="I60" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
@@ -6170,10 +6170,10 @@
         <v>982</v>
       </c>
       <c r="H61" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="I61" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
@@ -6196,10 +6196,10 @@
         <v>983</v>
       </c>
       <c r="H62" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="I62" t="s">
-        <v>1386</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
@@ -6222,10 +6222,10 @@
         <v>984</v>
       </c>
       <c r="H63" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="I63" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
@@ -6248,10 +6248,10 @@
         <v>985</v>
       </c>
       <c r="H64" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="I64" t="s">
-        <v>1386</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.3">
@@ -6274,10 +6274,10 @@
         <v>986</v>
       </c>
       <c r="H65" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="I65" t="s">
-        <v>1386</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.3">
@@ -6303,7 +6303,7 @@
         <v>1235</v>
       </c>
       <c r="I66" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.3">
@@ -6329,7 +6329,7 @@
         <v>1236</v>
       </c>
       <c r="I67" t="s">
-        <v>1386</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.3">
@@ -6355,7 +6355,7 @@
         <v>1237</v>
       </c>
       <c r="I68" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.3">
@@ -6378,10 +6378,10 @@
         <v>968</v>
       </c>
       <c r="H69" t="s">
-        <v>1377</v>
+        <v>1373</v>
       </c>
       <c r="I69" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.3">
@@ -6407,7 +6407,7 @@
         <v>1235</v>
       </c>
       <c r="I70" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.3">
@@ -6430,10 +6430,10 @@
         <v>985</v>
       </c>
       <c r="H71" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="I71" t="s">
-        <v>1386</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.3">
@@ -6456,10 +6456,10 @@
         <v>935</v>
       </c>
       <c r="H72" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="I72" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.3">
@@ -6482,10 +6482,10 @@
         <v>991</v>
       </c>
       <c r="H73" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="I73" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.3">
@@ -6508,13 +6508,13 @@
         <v>992</v>
       </c>
       <c r="H74" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="I74" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
       <c r="J74" t="s">
-        <v>1383</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.3">
@@ -6537,13 +6537,13 @@
         <v>927</v>
       </c>
       <c r="H75" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="I75" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
       <c r="J75" t="s">
-        <v>1383</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.3">
@@ -6566,10 +6566,10 @@
         <v>993</v>
       </c>
       <c r="H76" t="s">
-        <v>1366</v>
+        <v>1362</v>
       </c>
       <c r="I76" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.3">
@@ -6592,10 +6592,10 @@
         <v>929</v>
       </c>
       <c r="H77" t="s">
-        <v>1366</v>
+        <v>1362</v>
       </c>
       <c r="I77" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.3">
@@ -6618,10 +6618,10 @@
         <v>994</v>
       </c>
       <c r="H78" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="I78" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.3">
@@ -6644,22 +6644,22 @@
         <v>995</v>
       </c>
       <c r="H79" t="s">
+        <v>1256</v>
+      </c>
+      <c r="I79" t="s">
+        <v>1376</v>
+      </c>
+      <c r="K79" t="s">
+        <v>1258</v>
+      </c>
+      <c r="L79" t="s">
+        <v>1380</v>
+      </c>
+      <c r="M79" t="s">
         <v>1257</v>
       </c>
-      <c r="I79" t="s">
-        <v>1380</v>
-      </c>
-      <c r="K79" t="s">
-        <v>1259</v>
-      </c>
-      <c r="L79" t="s">
-        <v>1384</v>
-      </c>
-      <c r="M79" t="s">
-        <v>1258</v>
-      </c>
       <c r="N79" t="s">
-        <v>1386</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.3">
@@ -6685,10 +6685,10 @@
         <v>996</v>
       </c>
       <c r="H80" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="I80" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
@@ -6711,10 +6711,10 @@
         <v>997</v>
       </c>
       <c r="H81" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="I81" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
@@ -6740,10 +6740,10 @@
         <v>998</v>
       </c>
       <c r="H82" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="I82" t="s">
-        <v>1386</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
@@ -6766,10 +6766,10 @@
         <v>999</v>
       </c>
       <c r="H83" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="I83" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
@@ -6792,10 +6792,10 @@
         <v>1000</v>
       </c>
       <c r="H84" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="I84" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
@@ -6818,10 +6818,10 @@
         <v>1001</v>
       </c>
       <c r="H85" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="I85" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
@@ -6844,10 +6844,10 @@
         <v>955</v>
       </c>
       <c r="H86" t="s">
-        <v>1388</v>
+        <v>1384</v>
       </c>
       <c r="I86" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
@@ -6870,10 +6870,10 @@
         <v>1002</v>
       </c>
       <c r="H87" t="s">
-        <v>1388</v>
+        <v>1384</v>
       </c>
       <c r="I87" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
@@ -6896,10 +6896,10 @@
         <v>1003</v>
       </c>
       <c r="H88" t="s">
-        <v>1388</v>
+        <v>1384</v>
       </c>
       <c r="I88" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
@@ -6922,10 +6922,10 @@
         <v>1004</v>
       </c>
       <c r="H89" t="s">
-        <v>1388</v>
+        <v>1384</v>
       </c>
       <c r="I89" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
@@ -6948,10 +6948,10 @@
         <v>987</v>
       </c>
       <c r="H90" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="I90" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
@@ -6974,10 +6974,10 @@
         <v>1005</v>
       </c>
       <c r="H91" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="I91" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
@@ -7000,10 +7000,10 @@
         <v>1006</v>
       </c>
       <c r="H92" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="I92" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
@@ -7026,10 +7026,10 @@
         <v>1007</v>
       </c>
       <c r="H93" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="I93" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.3">
@@ -7052,10 +7052,10 @@
         <v>1008</v>
       </c>
       <c r="H94" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="I94" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
@@ -7078,10 +7078,10 @@
         <v>1009</v>
       </c>
       <c r="H95" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="I95" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
@@ -7104,10 +7104,10 @@
         <v>980</v>
       </c>
       <c r="H96" t="s">
-        <v>1389</v>
+        <v>1385</v>
       </c>
       <c r="I96" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.3">
@@ -7130,10 +7130,10 @@
         <v>1010</v>
       </c>
       <c r="H97" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="I97" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.3">
@@ -7156,10 +7156,10 @@
         <v>1011</v>
       </c>
       <c r="H98" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="I98" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.3">
@@ -7182,10 +7182,10 @@
         <v>1012</v>
       </c>
       <c r="H99" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="I99" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.3">
@@ -7208,10 +7208,10 @@
         <v>963</v>
       </c>
       <c r="H100" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="I100" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.3">
@@ -7234,10 +7234,10 @@
         <v>1013</v>
       </c>
       <c r="H101" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="I101" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.3">
@@ -7260,10 +7260,10 @@
         <v>1014</v>
       </c>
       <c r="H102" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="I102" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.3">
@@ -7286,10 +7286,10 @@
         <v>1015</v>
       </c>
       <c r="H103" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="I103" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.3">
@@ -7312,10 +7312,10 @@
         <v>1014</v>
       </c>
       <c r="H104" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="I104" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.3">
@@ -7338,10 +7338,10 @@
         <v>1016</v>
       </c>
       <c r="H105" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="I105" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.3">
@@ -7364,10 +7364,10 @@
         <v>1017</v>
       </c>
       <c r="H106" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="I106" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.3">
@@ -7390,10 +7390,10 @@
         <v>975</v>
       </c>
       <c r="H107" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="I107" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.3">
@@ -7416,10 +7416,10 @@
         <v>1018</v>
       </c>
       <c r="H108" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="I108" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.3">
@@ -7442,10 +7442,10 @@
         <v>980</v>
       </c>
       <c r="H109" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="I109" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.3">
@@ -7468,13 +7468,13 @@
         <v>1019</v>
       </c>
       <c r="H110" t="s">
-        <v>1368</v>
+        <v>1364</v>
       </c>
       <c r="I110" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
       <c r="J110" t="s">
-        <v>1383</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.3">
@@ -7497,13 +7497,13 @@
         <v>1020</v>
       </c>
       <c r="H111" t="s">
-        <v>1368</v>
+        <v>1364</v>
       </c>
       <c r="I111" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
       <c r="J111" t="s">
-        <v>1383</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.3">
@@ -7526,13 +7526,13 @@
         <v>1021</v>
       </c>
       <c r="H112" t="s">
-        <v>1368</v>
+        <v>1364</v>
       </c>
       <c r="I112" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
       <c r="J112" t="s">
-        <v>1383</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.3">
@@ -7555,10 +7555,10 @@
         <v>1022</v>
       </c>
       <c r="H113" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="I113" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.3">
@@ -7581,10 +7581,10 @@
         <v>980</v>
       </c>
       <c r="H114" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="I114" t="s">
-        <v>1382</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.3">
@@ -7607,10 +7607,10 @@
         <v>980</v>
       </c>
       <c r="H115" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="I115" t="s">
-        <v>1382</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.3">
@@ -7633,10 +7633,10 @@
         <v>1023</v>
       </c>
       <c r="H116" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="I116" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.3">
@@ -7659,10 +7659,10 @@
         <v>1024</v>
       </c>
       <c r="H117" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="I117" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.3">
@@ -7685,10 +7685,10 @@
         <v>1025</v>
       </c>
       <c r="H118" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="I118" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.3">
@@ -7711,10 +7711,10 @@
         <v>1026</v>
       </c>
       <c r="H119" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="I119" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.3">
@@ -7737,10 +7737,10 @@
         <v>985</v>
       </c>
       <c r="H120" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="I120" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.3">
@@ -7763,10 +7763,10 @@
         <v>980</v>
       </c>
       <c r="H121" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="I121" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.3">
@@ -7789,10 +7789,10 @@
         <v>980</v>
       </c>
       <c r="H122" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="I122" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.3">
@@ -7815,10 +7815,10 @@
         <v>1027</v>
       </c>
       <c r="H123" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="I123" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.3">
@@ -7841,10 +7841,10 @@
         <v>1028</v>
       </c>
       <c r="H124" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="I124" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.3">
@@ -7867,16 +7867,16 @@
         <v>1029</v>
       </c>
       <c r="H125" t="s">
+        <v>1271</v>
+      </c>
+      <c r="I125" t="s">
+        <v>1376</v>
+      </c>
+      <c r="K125" t="s">
         <v>1272</v>
       </c>
-      <c r="I125" t="s">
+      <c r="L125" t="s">
         <v>1380</v>
-      </c>
-      <c r="K125" t="s">
-        <v>1273</v>
-      </c>
-      <c r="L125" t="s">
-        <v>1384</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.3">
@@ -7899,10 +7899,10 @@
         <v>1030</v>
       </c>
       <c r="H126" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="I126" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.3">
@@ -7925,10 +7925,10 @@
         <v>1031</v>
       </c>
       <c r="H127" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="I127" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.3">
@@ -7951,10 +7951,10 @@
         <v>980</v>
       </c>
       <c r="H128" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="I128" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.3">
@@ -7977,10 +7977,10 @@
         <v>1032</v>
       </c>
       <c r="H129" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="I129" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.3">
@@ -8003,10 +8003,10 @@
         <v>1033</v>
       </c>
       <c r="H130" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="I130" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.3">
@@ -8029,10 +8029,10 @@
         <v>1034</v>
       </c>
       <c r="H131" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="I131" t="s">
-        <v>1382</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.3">
@@ -8055,10 +8055,10 @@
         <v>1035</v>
       </c>
       <c r="H132" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="I132" t="s">
-        <v>1382</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.3">
@@ -8081,10 +8081,10 @@
         <v>1036</v>
       </c>
       <c r="H133" t="s">
-        <v>1390</v>
+        <v>1386</v>
       </c>
       <c r="I133" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.3">
@@ -8107,10 +8107,10 @@
         <v>975</v>
       </c>
       <c r="H134" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="I134" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.3">
@@ -8133,10 +8133,10 @@
         <v>1037</v>
       </c>
       <c r="H135" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="I135" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.3">
@@ -8159,10 +8159,10 @@
         <v>947</v>
       </c>
       <c r="H136" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="I136" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.3">
@@ -8185,10 +8185,10 @@
         <v>957</v>
       </c>
       <c r="H137" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="I137" t="s">
-        <v>1382</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.3">
@@ -8211,10 +8211,10 @@
         <v>1001</v>
       </c>
       <c r="H138" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="I138" t="s">
-        <v>1382</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.3">
@@ -8237,10 +8237,10 @@
         <v>1038</v>
       </c>
       <c r="H139" t="s">
-        <v>1280</v>
+        <v>1396</v>
       </c>
       <c r="I139" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.3">
@@ -8263,10 +8263,10 @@
         <v>1039</v>
       </c>
       <c r="H140" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="I140" t="s">
-        <v>1382</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.3">
@@ -8289,10 +8289,10 @@
         <v>1040</v>
       </c>
       <c r="H141" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="I141" t="s">
-        <v>1382</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.3">
@@ -8315,10 +8315,10 @@
         <v>1041</v>
       </c>
       <c r="H142" t="s">
-        <v>1283</v>
+        <v>1397</v>
       </c>
       <c r="I142" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.3">
@@ -8341,10 +8341,10 @@
         <v>1042</v>
       </c>
       <c r="H143" t="s">
-        <v>1283</v>
+        <v>1397</v>
       </c>
       <c r="I143" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.3">
@@ -8367,10 +8367,10 @@
         <v>1043</v>
       </c>
       <c r="H144" t="s">
-        <v>1391</v>
+        <v>1387</v>
       </c>
       <c r="I144" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.3">
@@ -8393,10 +8393,10 @@
         <v>1044</v>
       </c>
       <c r="H145" t="s">
-        <v>1391</v>
+        <v>1387</v>
       </c>
       <c r="I145" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.3">
@@ -8419,10 +8419,10 @@
         <v>1045</v>
       </c>
       <c r="H146" t="s">
-        <v>1391</v>
+        <v>1387</v>
       </c>
       <c r="I146" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.3">
@@ -8445,10 +8445,10 @@
         <v>1046</v>
       </c>
       <c r="H147" t="s">
-        <v>1284</v>
+        <v>1281</v>
       </c>
       <c r="I147" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.3">
@@ -8471,10 +8471,10 @@
         <v>1047</v>
       </c>
       <c r="H148" t="s">
-        <v>1284</v>
+        <v>1281</v>
       </c>
       <c r="I148" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.3">
@@ -8497,10 +8497,10 @@
         <v>1048</v>
       </c>
       <c r="H149" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="I149" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.3">
@@ -8523,10 +8523,10 @@
         <v>985</v>
       </c>
       <c r="H150" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="I150" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.3">
@@ -8549,10 +8549,10 @@
         <v>947</v>
       </c>
       <c r="H151" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="I151" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.3">
@@ -8575,10 +8575,10 @@
         <v>1030</v>
       </c>
       <c r="H152" t="s">
-        <v>1369</v>
+        <v>1365</v>
       </c>
       <c r="I152" t="s">
-        <v>1382</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.3">
@@ -8601,10 +8601,10 @@
         <v>1049</v>
       </c>
       <c r="H153" t="s">
-        <v>1369</v>
+        <v>1365</v>
       </c>
       <c r="I153" t="s">
-        <v>1382</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.3">
@@ -8627,10 +8627,10 @@
         <v>971</v>
       </c>
       <c r="H154" t="s">
-        <v>1369</v>
+        <v>1365</v>
       </c>
       <c r="I154" t="s">
-        <v>1382</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.3">
@@ -8653,10 +8653,10 @@
         <v>1050</v>
       </c>
       <c r="H155" t="s">
-        <v>1285</v>
+        <v>1282</v>
       </c>
       <c r="I155" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.3">
@@ -8679,10 +8679,10 @@
         <v>1051</v>
       </c>
       <c r="H156" t="s">
-        <v>1285</v>
+        <v>1282</v>
       </c>
       <c r="I156" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.3">
@@ -8705,10 +8705,10 @@
         <v>955</v>
       </c>
       <c r="H157" t="s">
-        <v>1285</v>
+        <v>1282</v>
       </c>
       <c r="I157" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.3">
@@ -8731,10 +8731,10 @@
         <v>1052</v>
       </c>
       <c r="H158" t="s">
-        <v>1392</v>
+        <v>1388</v>
       </c>
       <c r="I158" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.3">
@@ -8757,10 +8757,10 @@
         <v>1053</v>
       </c>
       <c r="H159" t="s">
-        <v>1392</v>
+        <v>1388</v>
       </c>
       <c r="I159" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.3">
@@ -8783,10 +8783,10 @@
         <v>1054</v>
       </c>
       <c r="H160" t="s">
-        <v>1392</v>
+        <v>1388</v>
       </c>
       <c r="I160" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.3">
@@ -8809,10 +8809,10 @@
         <v>1055</v>
       </c>
       <c r="H161" t="s">
-        <v>1392</v>
+        <v>1388</v>
       </c>
       <c r="I161" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.3">
@@ -8835,10 +8835,10 @@
         <v>980</v>
       </c>
       <c r="H162" t="s">
-        <v>1286</v>
+        <v>1283</v>
       </c>
       <c r="I162" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.3">
@@ -8861,10 +8861,10 @@
         <v>980</v>
       </c>
       <c r="H163" t="s">
-        <v>1286</v>
+        <v>1283</v>
       </c>
       <c r="I163" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.3">
@@ -8887,10 +8887,10 @@
         <v>963</v>
       </c>
       <c r="H164" t="s">
-        <v>1286</v>
+        <v>1283</v>
       </c>
       <c r="I164" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.3">
@@ -8913,10 +8913,10 @@
         <v>1056</v>
       </c>
       <c r="H165" t="s">
-        <v>1286</v>
+        <v>1283</v>
       </c>
       <c r="I165" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.3">
@@ -8939,10 +8939,10 @@
         <v>1057</v>
       </c>
       <c r="H166" t="s">
-        <v>1286</v>
+        <v>1283</v>
       </c>
       <c r="I166" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.3">
@@ -8965,10 +8965,10 @@
         <v>1058</v>
       </c>
       <c r="H167" t="s">
-        <v>1287</v>
+        <v>1398</v>
       </c>
       <c r="I167" t="s">
-        <v>1382</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.3">
@@ -8991,10 +8991,10 @@
         <v>1059</v>
       </c>
       <c r="H168" t="s">
-        <v>1287</v>
+        <v>1398</v>
       </c>
       <c r="I168" t="s">
-        <v>1382</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.3">
@@ -9017,10 +9017,10 @@
         <v>1060</v>
       </c>
       <c r="H169" t="s">
-        <v>1287</v>
+        <v>1398</v>
       </c>
       <c r="I169" t="s">
-        <v>1382</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.3">
@@ -9043,10 +9043,10 @@
         <v>1061</v>
       </c>
       <c r="H170" t="s">
-        <v>1288</v>
+        <v>1284</v>
       </c>
       <c r="I170" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.3">
@@ -9069,10 +9069,10 @@
         <v>1062</v>
       </c>
       <c r="H171" t="s">
-        <v>1370</v>
+        <v>1366</v>
       </c>
       <c r="I171" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.3">
@@ -9095,10 +9095,10 @@
         <v>1063</v>
       </c>
       <c r="H172" t="s">
-        <v>1289</v>
+        <v>1285</v>
       </c>
       <c r="I172" t="s">
-        <v>1393</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.3">
@@ -9121,10 +9121,10 @@
         <v>1064</v>
       </c>
       <c r="H173" t="s">
-        <v>1289</v>
+        <v>1285</v>
       </c>
       <c r="I173" t="s">
-        <v>1393</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.3">
@@ -9147,10 +9147,10 @@
         <v>1065</v>
       </c>
       <c r="H174" t="s">
-        <v>1289</v>
+        <v>1285</v>
       </c>
       <c r="I174" t="s">
-        <v>1393</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.3">
@@ -9173,10 +9173,10 @@
         <v>1066</v>
       </c>
       <c r="H175" t="s">
-        <v>1289</v>
+        <v>1285</v>
       </c>
       <c r="I175" t="s">
-        <v>1393</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.3">
@@ -9199,10 +9199,10 @@
         <v>1067</v>
       </c>
       <c r="H176" t="s">
-        <v>1289</v>
+        <v>1285</v>
       </c>
       <c r="I176" t="s">
-        <v>1393</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.3">
@@ -9225,10 +9225,10 @@
         <v>1068</v>
       </c>
       <c r="H177" t="s">
-        <v>1398</v>
+        <v>1394</v>
       </c>
       <c r="I177" t="s">
-        <v>1393</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.3">
@@ -9251,10 +9251,10 @@
         <v>1069</v>
       </c>
       <c r="H178" t="s">
-        <v>1398</v>
+        <v>1394</v>
       </c>
       <c r="I178" t="s">
-        <v>1393</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.3">
@@ -9277,10 +9277,10 @@
         <v>1070</v>
       </c>
       <c r="H179" t="s">
-        <v>1398</v>
+        <v>1394</v>
       </c>
       <c r="I179" t="s">
-        <v>1393</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.3">
@@ -9303,10 +9303,10 @@
         <v>1071</v>
       </c>
       <c r="H180" t="s">
-        <v>1398</v>
+        <v>1394</v>
       </c>
       <c r="I180" t="s">
-        <v>1393</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.3">
@@ -9329,10 +9329,10 @@
         <v>1072</v>
       </c>
       <c r="H181" t="s">
-        <v>1398</v>
+        <v>1394</v>
       </c>
       <c r="I181" t="s">
-        <v>1393</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.3">
@@ -9355,10 +9355,10 @@
         <v>980</v>
       </c>
       <c r="H182" t="s">
-        <v>1398</v>
+        <v>1394</v>
       </c>
       <c r="I182" t="s">
-        <v>1393</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.3">
@@ -9381,10 +9381,10 @@
         <v>1073</v>
       </c>
       <c r="H183" t="s">
-        <v>1371</v>
+        <v>1367</v>
       </c>
       <c r="I183" t="s">
-        <v>1393</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.3">
@@ -9407,10 +9407,10 @@
         <v>1074</v>
       </c>
       <c r="H184" t="s">
-        <v>1371</v>
+        <v>1367</v>
       </c>
       <c r="I184" t="s">
-        <v>1393</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.3">
@@ -9433,10 +9433,10 @@
         <v>1000</v>
       </c>
       <c r="H185" t="s">
-        <v>1371</v>
+        <v>1367</v>
       </c>
       <c r="I185" t="s">
-        <v>1393</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.3">
@@ -9459,10 +9459,10 @@
         <v>1075</v>
       </c>
       <c r="H186" t="s">
-        <v>1371</v>
+        <v>1367</v>
       </c>
       <c r="I186" t="s">
-        <v>1393</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.3">
@@ -9485,10 +9485,10 @@
         <v>1076</v>
       </c>
       <c r="H187" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
       <c r="I187" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.3">
@@ -9511,10 +9511,10 @@
         <v>1077</v>
       </c>
       <c r="H188" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
       <c r="I188" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.3">
@@ -9537,16 +9537,16 @@
         <v>1078</v>
       </c>
       <c r="H189" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
       <c r="I189" t="s">
+        <v>1376</v>
+      </c>
+      <c r="K189" t="s">
+        <v>1287</v>
+      </c>
+      <c r="L189" t="s">
         <v>1380</v>
-      </c>
-      <c r="K189" t="s">
-        <v>1291</v>
-      </c>
-      <c r="L189" t="s">
-        <v>1384</v>
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.3">
@@ -9569,10 +9569,10 @@
         <v>979</v>
       </c>
       <c r="H190" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
       <c r="I190" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.3">
@@ -9595,10 +9595,10 @@
         <v>1021</v>
       </c>
       <c r="H191" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
       <c r="I191" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.3">
@@ -9621,10 +9621,10 @@
         <v>1079</v>
       </c>
       <c r="H192" t="s">
-        <v>1291</v>
+        <v>1287</v>
       </c>
       <c r="I192" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.3">
@@ -9647,10 +9647,10 @@
         <v>1080</v>
       </c>
       <c r="H193" t="s">
-        <v>1291</v>
+        <v>1287</v>
       </c>
       <c r="I193" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.3">
@@ -9673,10 +9673,10 @@
         <v>980</v>
       </c>
       <c r="H194" t="s">
-        <v>1291</v>
+        <v>1287</v>
       </c>
       <c r="I194" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.3">
@@ -9699,10 +9699,10 @@
         <v>1081</v>
       </c>
       <c r="H195" t="s">
-        <v>1292</v>
+        <v>1288</v>
       </c>
       <c r="I195" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.3">
@@ -9725,10 +9725,10 @@
         <v>1082</v>
       </c>
       <c r="H196" t="s">
-        <v>1292</v>
+        <v>1288</v>
       </c>
       <c r="I196" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.3">
@@ -9751,10 +9751,10 @@
         <v>1083</v>
       </c>
       <c r="H197" t="s">
-        <v>1292</v>
+        <v>1288</v>
       </c>
       <c r="I197" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.3">
@@ -9777,10 +9777,10 @@
         <v>1084</v>
       </c>
       <c r="H198" t="s">
-        <v>1292</v>
+        <v>1288</v>
       </c>
       <c r="I198" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.3">
@@ -9803,10 +9803,10 @@
         <v>1021</v>
       </c>
       <c r="H199" t="s">
-        <v>1292</v>
+        <v>1288</v>
       </c>
       <c r="I199" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.3">
@@ -9829,10 +9829,10 @@
         <v>1085</v>
       </c>
       <c r="H200" t="s">
-        <v>1293</v>
+        <v>1289</v>
       </c>
       <c r="I200" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.3">
@@ -9855,10 +9855,10 @@
         <v>1086</v>
       </c>
       <c r="H201" t="s">
-        <v>1293</v>
+        <v>1289</v>
       </c>
       <c r="I201" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.3">
@@ -9881,10 +9881,10 @@
         <v>1087</v>
       </c>
       <c r="H202" t="s">
-        <v>1293</v>
+        <v>1289</v>
       </c>
       <c r="I202" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.3">
@@ -9907,13 +9907,13 @@
         <v>1088</v>
       </c>
       <c r="H203" t="s">
-        <v>1294</v>
+        <v>1290</v>
       </c>
       <c r="I203" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
       <c r="J203" t="s">
-        <v>1383</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.3">
@@ -9936,13 +9936,13 @@
         <v>1089</v>
       </c>
       <c r="H204" t="s">
-        <v>1294</v>
+        <v>1290</v>
       </c>
       <c r="I204" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
       <c r="J204" t="s">
-        <v>1383</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.3">
@@ -9965,13 +9965,13 @@
         <v>1090</v>
       </c>
       <c r="H205" t="s">
-        <v>1294</v>
+        <v>1290</v>
       </c>
       <c r="I205" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
       <c r="J205" t="s">
-        <v>1383</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.3">
@@ -9994,13 +9994,13 @@
         <v>1091</v>
       </c>
       <c r="H206" t="s">
-        <v>1294</v>
+        <v>1290</v>
       </c>
       <c r="I206" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
       <c r="J206" t="s">
-        <v>1383</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.3">
@@ -10023,13 +10023,13 @@
         <v>1021</v>
       </c>
       <c r="H207" t="s">
-        <v>1294</v>
+        <v>1290</v>
       </c>
       <c r="I207" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
       <c r="J207" t="s">
-        <v>1383</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.3">
@@ -10052,10 +10052,10 @@
         <v>1092</v>
       </c>
       <c r="H208" t="s">
-        <v>1295</v>
+        <v>1291</v>
       </c>
       <c r="I208" t="s">
-        <v>1386</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.3">
@@ -10078,10 +10078,10 @@
         <v>1071</v>
       </c>
       <c r="H209" t="s">
-        <v>1295</v>
+        <v>1291</v>
       </c>
       <c r="I209" t="s">
-        <v>1386</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.3">
@@ -10104,10 +10104,10 @@
         <v>1093</v>
       </c>
       <c r="H210" t="s">
-        <v>1295</v>
+        <v>1291</v>
       </c>
       <c r="I210" t="s">
-        <v>1386</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.3">
@@ -10130,10 +10130,10 @@
         <v>1094</v>
       </c>
       <c r="H211" t="s">
-        <v>1296</v>
+        <v>1292</v>
       </c>
       <c r="I211" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.3">
@@ -10156,10 +10156,10 @@
         <v>1095</v>
       </c>
       <c r="H212" t="s">
-        <v>1296</v>
+        <v>1292</v>
       </c>
       <c r="I212" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.3">
@@ -10182,10 +10182,10 @@
         <v>1096</v>
       </c>
       <c r="H213" t="s">
-        <v>1296</v>
+        <v>1292</v>
       </c>
       <c r="I213" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.3">
@@ -10208,10 +10208,10 @@
         <v>1097</v>
       </c>
       <c r="H214" t="s">
-        <v>1296</v>
+        <v>1292</v>
       </c>
       <c r="I214" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.3">
@@ -10234,10 +10234,10 @@
         <v>1021</v>
       </c>
       <c r="H215" t="s">
-        <v>1296</v>
+        <v>1292</v>
       </c>
       <c r="I215" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.3">
@@ -10260,10 +10260,10 @@
         <v>1039</v>
       </c>
       <c r="H216" t="s">
-        <v>1297</v>
+        <v>1293</v>
       </c>
       <c r="I216" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.3">
@@ -10286,10 +10286,10 @@
         <v>1021</v>
       </c>
       <c r="H217" t="s">
-        <v>1297</v>
+        <v>1293</v>
       </c>
       <c r="I217" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.3">
@@ -10312,10 +10312,10 @@
         <v>1098</v>
       </c>
       <c r="H218" t="s">
-        <v>1297</v>
+        <v>1293</v>
       </c>
       <c r="I218" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.3">
@@ -10338,10 +10338,10 @@
         <v>1099</v>
       </c>
       <c r="H219" t="s">
-        <v>1298</v>
+        <v>1294</v>
       </c>
       <c r="I219" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.3">
@@ -10364,10 +10364,10 @@
         <v>978</v>
       </c>
       <c r="H220" t="s">
-        <v>1298</v>
+        <v>1294</v>
       </c>
       <c r="I220" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.3">
@@ -10390,10 +10390,10 @@
         <v>1100</v>
       </c>
       <c r="H221" t="s">
-        <v>1299</v>
+        <v>1295</v>
       </c>
       <c r="I221" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.3">
@@ -10416,10 +10416,10 @@
         <v>972</v>
       </c>
       <c r="H222" t="s">
-        <v>1299</v>
+        <v>1295</v>
       </c>
       <c r="I222" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.3">
@@ -10442,10 +10442,10 @@
         <v>1101</v>
       </c>
       <c r="H223" t="s">
-        <v>1299</v>
+        <v>1295</v>
       </c>
       <c r="I223" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.3">
@@ -10468,10 +10468,10 @@
         <v>1102</v>
       </c>
       <c r="H224" t="s">
-        <v>1300</v>
+        <v>1296</v>
       </c>
       <c r="I224" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.3">
@@ -10497,7 +10497,7 @@
         <v>1236</v>
       </c>
       <c r="I225" t="s">
-        <v>1382</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.3">
@@ -10520,10 +10520,10 @@
         <v>956</v>
       </c>
       <c r="H226" t="s">
-        <v>1372</v>
+        <v>1368</v>
       </c>
       <c r="I226" t="s">
-        <v>1382</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.3">
@@ -10546,10 +10546,10 @@
         <v>985</v>
       </c>
       <c r="H227" t="s">
-        <v>1301</v>
+        <v>1297</v>
       </c>
       <c r="I227" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.3">
@@ -10572,10 +10572,10 @@
         <v>1104</v>
       </c>
       <c r="H228" t="s">
-        <v>1300</v>
+        <v>1296</v>
       </c>
       <c r="I228" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.3">
@@ -10598,10 +10598,10 @@
         <v>1059</v>
       </c>
       <c r="H229" t="s">
-        <v>1298</v>
+        <v>1294</v>
       </c>
       <c r="I229" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.3">
@@ -10624,10 +10624,10 @@
         <v>982</v>
       </c>
       <c r="H230" t="s">
-        <v>1302</v>
+        <v>1298</v>
       </c>
       <c r="I230" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.3">
@@ -10650,10 +10650,10 @@
         <v>1105</v>
       </c>
       <c r="H231" t="s">
-        <v>1302</v>
+        <v>1298</v>
       </c>
       <c r="I231" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.3">
@@ -10679,7 +10679,7 @@
         <v>1236</v>
       </c>
       <c r="I232" t="s">
-        <v>1382</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.3">
@@ -10705,7 +10705,7 @@
         <v>1236</v>
       </c>
       <c r="I233" t="s">
-        <v>1382</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.3">
@@ -10728,10 +10728,10 @@
         <v>973</v>
       </c>
       <c r="H234" t="s">
-        <v>1303</v>
+        <v>1299</v>
       </c>
       <c r="I234" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.3">
@@ -10754,10 +10754,10 @@
         <v>1107</v>
       </c>
       <c r="H235" t="s">
-        <v>1298</v>
+        <v>1294</v>
       </c>
       <c r="I235" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.3">
@@ -10780,10 +10780,10 @@
         <v>945</v>
       </c>
       <c r="H236" t="s">
-        <v>1300</v>
+        <v>1296</v>
       </c>
       <c r="I236" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.3">
@@ -10806,10 +10806,10 @@
         <v>1108</v>
       </c>
       <c r="H237" t="s">
-        <v>1298</v>
+        <v>1294</v>
       </c>
       <c r="I237" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.3">
@@ -10832,10 +10832,10 @@
         <v>1109</v>
       </c>
       <c r="H238" t="s">
-        <v>1300</v>
+        <v>1296</v>
       </c>
       <c r="I238" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.3">
@@ -10858,10 +10858,10 @@
         <v>1030</v>
       </c>
       <c r="H239" t="s">
-        <v>1298</v>
+        <v>1294</v>
       </c>
       <c r="I239" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.3">
@@ -10884,10 +10884,10 @@
         <v>1110</v>
       </c>
       <c r="H240" t="s">
-        <v>1304</v>
+        <v>1300</v>
       </c>
       <c r="I240" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.3">
@@ -10910,10 +10910,10 @@
         <v>980</v>
       </c>
       <c r="H241" t="s">
-        <v>1301</v>
+        <v>1297</v>
       </c>
       <c r="I241" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.3">
@@ -10936,10 +10936,10 @@
         <v>1111</v>
       </c>
       <c r="H242" t="s">
-        <v>1305</v>
+        <v>1301</v>
       </c>
       <c r="I242" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.3">
@@ -10962,10 +10962,10 @@
         <v>1112</v>
       </c>
       <c r="H243" t="s">
-        <v>1305</v>
+        <v>1301</v>
       </c>
       <c r="I243" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.3">
@@ -10988,10 +10988,10 @@
         <v>990</v>
       </c>
       <c r="H244" t="s">
-        <v>1305</v>
+        <v>1301</v>
       </c>
       <c r="I244" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.3">
@@ -11014,10 +11014,10 @@
         <v>1113</v>
       </c>
       <c r="H245" t="s">
-        <v>1305</v>
+        <v>1301</v>
       </c>
       <c r="I245" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.3">
@@ -11040,10 +11040,10 @@
         <v>1114</v>
       </c>
       <c r="H246" t="s">
-        <v>1305</v>
+        <v>1301</v>
       </c>
       <c r="I246" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.3">
@@ -11066,10 +11066,10 @@
         <v>1115</v>
       </c>
       <c r="H247" t="s">
-        <v>1305</v>
+        <v>1301</v>
       </c>
       <c r="I247" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.3">
@@ -11092,10 +11092,10 @@
         <v>1066</v>
       </c>
       <c r="H248" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="I248" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.3">
@@ -11118,10 +11118,10 @@
         <v>1116</v>
       </c>
       <c r="H249" t="s">
-        <v>1306</v>
+        <v>1302</v>
       </c>
       <c r="I249" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.3">
@@ -11144,10 +11144,10 @@
         <v>1117</v>
       </c>
       <c r="H250" t="s">
-        <v>1306</v>
+        <v>1302</v>
       </c>
       <c r="I250" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.3">
@@ -11170,10 +11170,10 @@
         <v>1118</v>
       </c>
       <c r="H251" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="I251" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.3">
@@ -11196,10 +11196,10 @@
         <v>1119</v>
       </c>
       <c r="H252" t="s">
-        <v>1306</v>
+        <v>1302</v>
       </c>
       <c r="I252" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.3">
@@ -11225,7 +11225,7 @@
         <v>1232</v>
       </c>
       <c r="I253" t="s">
-        <v>1386</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.3">
@@ -11251,7 +11251,7 @@
         <v>1232</v>
       </c>
       <c r="I254" t="s">
-        <v>1386</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.3">
@@ -11274,10 +11274,10 @@
         <v>985</v>
       </c>
       <c r="H255" t="s">
-        <v>1373</v>
+        <v>1369</v>
       </c>
       <c r="I255" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.3">
@@ -11300,10 +11300,10 @@
         <v>985</v>
       </c>
       <c r="H256" t="s">
-        <v>1307</v>
+        <v>1303</v>
       </c>
       <c r="I256" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.3">
@@ -11326,10 +11326,10 @@
         <v>1120</v>
       </c>
       <c r="H257" t="s">
-        <v>1307</v>
+        <v>1303</v>
       </c>
       <c r="I257" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.3">
@@ -11352,10 +11352,10 @@
         <v>1121</v>
       </c>
       <c r="H258" t="s">
-        <v>1307</v>
+        <v>1303</v>
       </c>
       <c r="I258" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.3">
@@ -11378,10 +11378,10 @@
         <v>1122</v>
       </c>
       <c r="H259" t="s">
-        <v>1307</v>
+        <v>1303</v>
       </c>
       <c r="I259" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.3">
@@ -11404,10 +11404,10 @@
         <v>1123</v>
       </c>
       <c r="H260" t="s">
-        <v>1308</v>
+        <v>1304</v>
       </c>
       <c r="I260" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.3">
@@ -11430,10 +11430,10 @@
         <v>1124</v>
       </c>
       <c r="H261" t="s">
-        <v>1308</v>
+        <v>1304</v>
       </c>
       <c r="I261" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.3">
@@ -11456,10 +11456,10 @@
         <v>1125</v>
       </c>
       <c r="H262" t="s">
-        <v>1308</v>
+        <v>1304</v>
       </c>
       <c r="I262" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.3">
@@ -11482,10 +11482,10 @@
         <v>985</v>
       </c>
       <c r="H263" t="s">
-        <v>1309</v>
+        <v>1305</v>
       </c>
       <c r="I263" t="s">
-        <v>1386</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.3">
@@ -11508,10 +11508,10 @@
         <v>1126</v>
       </c>
       <c r="H264" t="s">
-        <v>1306</v>
+        <v>1302</v>
       </c>
       <c r="I264" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.3">
@@ -11534,10 +11534,10 @@
         <v>985</v>
       </c>
       <c r="H265" t="s">
-        <v>1394</v>
+        <v>1390</v>
       </c>
       <c r="I265" t="s">
-        <v>1386</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.3">
@@ -11560,10 +11560,10 @@
         <v>989</v>
       </c>
       <c r="H266" t="s">
-        <v>1374</v>
+        <v>1370</v>
       </c>
       <c r="I266" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.3">
@@ -11586,10 +11586,10 @@
         <v>935</v>
       </c>
       <c r="H267" t="s">
-        <v>1306</v>
+        <v>1302</v>
       </c>
       <c r="I267" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.3">
@@ -11612,10 +11612,10 @@
         <v>975</v>
       </c>
       <c r="H268" t="s">
-        <v>1306</v>
+        <v>1302</v>
       </c>
       <c r="I268" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.3">
@@ -11638,10 +11638,10 @@
         <v>1127</v>
       </c>
       <c r="H269" t="s">
-        <v>1308</v>
+        <v>1304</v>
       </c>
       <c r="I269" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.3">
@@ -11664,10 +11664,10 @@
         <v>1128</v>
       </c>
       <c r="H270" t="s">
-        <v>1308</v>
+        <v>1304</v>
       </c>
       <c r="I270" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.3">
@@ -11690,10 +11690,10 @@
         <v>944</v>
       </c>
       <c r="H271" t="s">
-        <v>1306</v>
+        <v>1302</v>
       </c>
       <c r="I271" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.3">
@@ -11716,10 +11716,10 @@
         <v>1129</v>
       </c>
       <c r="H272" t="s">
-        <v>1374</v>
+        <v>1370</v>
       </c>
       <c r="I272" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.3">
@@ -11742,10 +11742,10 @@
         <v>1130</v>
       </c>
       <c r="H273" t="s">
-        <v>1374</v>
+        <v>1370</v>
       </c>
       <c r="I273" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.3">
@@ -11768,10 +11768,10 @@
         <v>1058</v>
       </c>
       <c r="H274" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="I274" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.3">
@@ -11794,10 +11794,10 @@
         <v>935</v>
       </c>
       <c r="H275" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="I275" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.3">
@@ -11820,10 +11820,10 @@
         <v>1131</v>
       </c>
       <c r="H276" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="I276" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.3">
@@ -11846,10 +11846,10 @@
         <v>1132</v>
       </c>
       <c r="H277" t="s">
-        <v>1311</v>
+        <v>1307</v>
       </c>
       <c r="I277" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.3">
@@ -11872,10 +11872,10 @@
         <v>990</v>
       </c>
       <c r="H278" t="s">
-        <v>1311</v>
+        <v>1307</v>
       </c>
       <c r="I278" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.3">
@@ -11898,10 +11898,10 @@
         <v>1128</v>
       </c>
       <c r="H279" t="s">
-        <v>1375</v>
+        <v>1371</v>
       </c>
       <c r="I279" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.3">
@@ -11924,10 +11924,10 @@
         <v>1124</v>
       </c>
       <c r="H280" t="s">
-        <v>1375</v>
+        <v>1371</v>
       </c>
       <c r="I280" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.3">
@@ -11950,10 +11950,10 @@
         <v>1133</v>
       </c>
       <c r="H281" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="I281" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.3">
@@ -11976,10 +11976,10 @@
         <v>1126</v>
       </c>
       <c r="H282" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="I282" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.3">
@@ -12002,10 +12002,10 @@
         <v>1134</v>
       </c>
       <c r="H283" t="s">
-        <v>1313</v>
+        <v>1309</v>
       </c>
       <c r="I283" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.3">
@@ -12028,10 +12028,10 @@
         <v>1135</v>
       </c>
       <c r="H284" t="s">
-        <v>1313</v>
+        <v>1309</v>
       </c>
       <c r="I284" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.3">
@@ -12057,10 +12057,10 @@
         <v>1136</v>
       </c>
       <c r="H285" t="s">
-        <v>1313</v>
+        <v>1309</v>
       </c>
       <c r="I285" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.3">
@@ -12083,10 +12083,10 @@
         <v>975</v>
       </c>
       <c r="H286" t="s">
-        <v>1314</v>
+        <v>1310</v>
       </c>
       <c r="I286" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.3">
@@ -12109,10 +12109,10 @@
         <v>978</v>
       </c>
       <c r="H287" t="s">
-        <v>1315</v>
+        <v>1311</v>
       </c>
       <c r="I287" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.3">
@@ -12135,10 +12135,10 @@
         <v>1137</v>
       </c>
       <c r="H288" t="s">
-        <v>1315</v>
+        <v>1311</v>
       </c>
       <c r="I288" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.3">
@@ -12161,10 +12161,10 @@
         <v>1138</v>
       </c>
       <c r="H289" t="s">
-        <v>1313</v>
+        <v>1309</v>
       </c>
       <c r="I289" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.3">
@@ -12187,10 +12187,10 @@
         <v>980</v>
       </c>
       <c r="H290" t="s">
-        <v>1301</v>
+        <v>1297</v>
       </c>
       <c r="I290" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.3">
@@ -12213,10 +12213,10 @@
         <v>1118</v>
       </c>
       <c r="H291" t="s">
-        <v>1314</v>
+        <v>1310</v>
       </c>
       <c r="I291" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.3">
@@ -12239,10 +12239,10 @@
         <v>985</v>
       </c>
       <c r="H292" t="s">
-        <v>1301</v>
+        <v>1297</v>
       </c>
       <c r="I292" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.3">
@@ -12265,10 +12265,10 @@
         <v>1139</v>
       </c>
       <c r="H293" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="I293" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.3">
@@ -12291,10 +12291,10 @@
         <v>1140</v>
       </c>
       <c r="H294" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="I294" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.3">
@@ -12317,10 +12317,10 @@
         <v>1141</v>
       </c>
       <c r="H295" t="s">
-        <v>1313</v>
+        <v>1309</v>
       </c>
       <c r="I295" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.3">
@@ -12343,10 +12343,10 @@
         <v>1142</v>
       </c>
       <c r="H296" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="I296" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.3">
@@ -12369,10 +12369,10 @@
         <v>1143</v>
       </c>
       <c r="H297" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="I297" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.3">
@@ -12395,10 +12395,10 @@
         <v>963</v>
       </c>
       <c r="H298" t="s">
-        <v>1313</v>
+        <v>1309</v>
       </c>
       <c r="I298" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.3">
@@ -12424,10 +12424,10 @@
         <v>1144</v>
       </c>
       <c r="H299" t="s">
-        <v>1316</v>
+        <v>1312</v>
       </c>
       <c r="I299" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.3">
@@ -12450,10 +12450,10 @@
         <v>1145</v>
       </c>
       <c r="H300" t="s">
-        <v>1316</v>
+        <v>1312</v>
       </c>
       <c r="I300" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.3">
@@ -12476,10 +12476,10 @@
         <v>966</v>
       </c>
       <c r="H301" t="s">
-        <v>1316</v>
+        <v>1312</v>
       </c>
       <c r="I301" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.3">
@@ -12505,10 +12505,10 @@
         <v>1146</v>
       </c>
       <c r="H302" t="s">
-        <v>1316</v>
+        <v>1312</v>
       </c>
       <c r="I302" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.3">
@@ -12531,10 +12531,10 @@
         <v>985</v>
       </c>
       <c r="H303" t="s">
-        <v>1395</v>
+        <v>1391</v>
       </c>
       <c r="I303" t="s">
-        <v>1386</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.3">
@@ -12557,10 +12557,10 @@
         <v>1105</v>
       </c>
       <c r="H304" t="s">
-        <v>1316</v>
+        <v>1312</v>
       </c>
       <c r="I304" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.3">
@@ -12583,10 +12583,10 @@
         <v>1147</v>
       </c>
       <c r="H305" t="s">
-        <v>1316</v>
+        <v>1312</v>
       </c>
       <c r="I305" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.3">
@@ -12609,10 +12609,10 @@
         <v>1049</v>
       </c>
       <c r="H306" t="s">
-        <v>1316</v>
+        <v>1312</v>
       </c>
       <c r="I306" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.3">
@@ -12635,10 +12635,10 @@
         <v>1148</v>
       </c>
       <c r="H307" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="I307" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.3">
@@ -12661,10 +12661,10 @@
         <v>1149</v>
       </c>
       <c r="H308" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="I308" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.3">
@@ -12687,10 +12687,10 @@
         <v>1150</v>
       </c>
       <c r="H309" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="I309" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.3">
@@ -12713,10 +12713,10 @@
         <v>1151</v>
       </c>
       <c r="H310" t="s">
-        <v>1318</v>
+        <v>1314</v>
       </c>
       <c r="I310" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.3">
@@ -12739,10 +12739,10 @@
         <v>1152</v>
       </c>
       <c r="H311" t="s">
-        <v>1318</v>
+        <v>1314</v>
       </c>
       <c r="I311" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.3">
@@ -12765,10 +12765,10 @@
         <v>1153</v>
       </c>
       <c r="H312" t="s">
-        <v>1318</v>
+        <v>1314</v>
       </c>
       <c r="I312" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.3">
@@ -12791,10 +12791,10 @@
         <v>1154</v>
       </c>
       <c r="H313" t="s">
-        <v>1319</v>
+        <v>1315</v>
       </c>
       <c r="I313" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.3">
@@ -12817,10 +12817,10 @@
         <v>987</v>
       </c>
       <c r="H314" t="s">
-        <v>1319</v>
+        <v>1315</v>
       </c>
       <c r="I314" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.3">
@@ -12843,10 +12843,10 @@
         <v>968</v>
       </c>
       <c r="H315" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="I315" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.3">
@@ -12869,10 +12869,10 @@
         <v>942</v>
       </c>
       <c r="H316" t="s">
-        <v>1318</v>
+        <v>1314</v>
       </c>
       <c r="I316" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.3">
@@ -12895,10 +12895,10 @@
         <v>1155</v>
       </c>
       <c r="H317" t="s">
-        <v>1373</v>
+        <v>1369</v>
       </c>
       <c r="I317" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.3">
@@ -12921,10 +12921,10 @@
         <v>990</v>
       </c>
       <c r="H318" t="s">
-        <v>1307</v>
+        <v>1303</v>
       </c>
       <c r="I318" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.3">
@@ -12947,10 +12947,10 @@
         <v>1156</v>
       </c>
       <c r="H319" t="s">
-        <v>1320</v>
+        <v>1316</v>
       </c>
       <c r="I319" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.3">
@@ -12973,10 +12973,10 @@
         <v>1157</v>
       </c>
       <c r="H320" t="s">
-        <v>1320</v>
+        <v>1316</v>
       </c>
       <c r="I320" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.3">
@@ -12999,10 +12999,10 @@
         <v>1150</v>
       </c>
       <c r="H321" t="s">
-        <v>1396</v>
+        <v>1392</v>
       </c>
       <c r="I321" t="s">
-        <v>1385</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.3">
@@ -13025,10 +13025,10 @@
         <v>1158</v>
       </c>
       <c r="H322" t="s">
-        <v>1396</v>
+        <v>1392</v>
       </c>
       <c r="I322" t="s">
-        <v>1385</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.3">
@@ -13051,10 +13051,10 @@
         <v>1159</v>
       </c>
       <c r="H323" t="s">
-        <v>1321</v>
+        <v>1317</v>
       </c>
       <c r="I323" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.3">
@@ -13077,10 +13077,10 @@
         <v>975</v>
       </c>
       <c r="H324" t="s">
-        <v>1322</v>
+        <v>1318</v>
       </c>
       <c r="I324" t="s">
-        <v>1382</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.3">
@@ -13103,10 +13103,10 @@
         <v>1160</v>
       </c>
       <c r="H325" t="s">
-        <v>1323</v>
+        <v>1319</v>
       </c>
       <c r="I325" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.3">
@@ -13129,10 +13129,10 @@
         <v>1120</v>
       </c>
       <c r="H326" t="s">
-        <v>1321</v>
+        <v>1317</v>
       </c>
       <c r="I326" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.3">
@@ -13155,10 +13155,10 @@
         <v>1121</v>
       </c>
       <c r="H327" t="s">
-        <v>1321</v>
+        <v>1317</v>
       </c>
       <c r="I327" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.3">
@@ -13181,10 +13181,10 @@
         <v>935</v>
       </c>
       <c r="H328" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="I328" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.3">
@@ -13207,10 +13207,10 @@
         <v>1161</v>
       </c>
       <c r="H329" t="s">
-        <v>1323</v>
+        <v>1319</v>
       </c>
       <c r="I329" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.3">
@@ -13233,10 +13233,10 @@
         <v>1162</v>
       </c>
       <c r="H330" t="s">
-        <v>1324</v>
+        <v>1320</v>
       </c>
       <c r="I330" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.3">
@@ -13259,10 +13259,10 @@
         <v>1163</v>
       </c>
       <c r="H331" t="s">
-        <v>1311</v>
+        <v>1307</v>
       </c>
       <c r="I331" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.3">
@@ -13285,10 +13285,10 @@
         <v>991</v>
       </c>
       <c r="H332" t="s">
-        <v>1322</v>
+        <v>1318</v>
       </c>
       <c r="I332" t="s">
-        <v>1382</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.3">
@@ -13311,10 +13311,10 @@
         <v>1164</v>
       </c>
       <c r="H333" t="s">
-        <v>1320</v>
+        <v>1316</v>
       </c>
       <c r="I333" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.3">
@@ -13337,10 +13337,10 @@
         <v>1165</v>
       </c>
       <c r="H334" t="s">
-        <v>1320</v>
+        <v>1316</v>
       </c>
       <c r="I334" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.3">
@@ -13363,10 +13363,10 @@
         <v>1166</v>
       </c>
       <c r="H335" t="s">
-        <v>1323</v>
+        <v>1319</v>
       </c>
       <c r="I335" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.3">
@@ -13389,10 +13389,10 @@
         <v>927</v>
       </c>
       <c r="H336" t="s">
-        <v>1321</v>
+        <v>1317</v>
       </c>
       <c r="I336" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="337" spans="1:10" x14ac:dyDescent="0.3">
@@ -13415,10 +13415,10 @@
         <v>1167</v>
       </c>
       <c r="H337" t="s">
-        <v>1374</v>
+        <v>1370</v>
       </c>
       <c r="I337" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="338" spans="1:10" x14ac:dyDescent="0.3">
@@ -13441,10 +13441,10 @@
         <v>987</v>
       </c>
       <c r="H338" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="I338" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="339" spans="1:10" x14ac:dyDescent="0.3">
@@ -13467,13 +13467,13 @@
         <v>942</v>
       </c>
       <c r="H339" t="s">
-        <v>1325</v>
+        <v>1321</v>
       </c>
       <c r="I339" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
       <c r="J339" t="s">
-        <v>1383</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="340" spans="1:10" x14ac:dyDescent="0.3">
@@ -13496,10 +13496,10 @@
         <v>1168</v>
       </c>
       <c r="H340" t="s">
-        <v>1326</v>
+        <v>1322</v>
       </c>
       <c r="I340" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="341" spans="1:10" x14ac:dyDescent="0.3">
@@ -13522,10 +13522,10 @@
         <v>1169</v>
       </c>
       <c r="H341" t="s">
-        <v>1326</v>
+        <v>1322</v>
       </c>
       <c r="I341" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="342" spans="1:10" x14ac:dyDescent="0.3">
@@ -13548,10 +13548,10 @@
         <v>1170</v>
       </c>
       <c r="H342" t="s">
-        <v>1326</v>
+        <v>1322</v>
       </c>
       <c r="I342" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="343" spans="1:10" x14ac:dyDescent="0.3">
@@ -13574,10 +13574,10 @@
         <v>1171</v>
       </c>
       <c r="H343" t="s">
-        <v>1327</v>
+        <v>1323</v>
       </c>
       <c r="I343" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="344" spans="1:10" x14ac:dyDescent="0.3">
@@ -13600,10 +13600,10 @@
         <v>985</v>
       </c>
       <c r="H344" t="s">
-        <v>1327</v>
+        <v>1323</v>
       </c>
       <c r="I344" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="345" spans="1:10" x14ac:dyDescent="0.3">
@@ -13626,10 +13626,10 @@
         <v>1105</v>
       </c>
       <c r="H345" t="s">
-        <v>1328</v>
+        <v>1324</v>
       </c>
       <c r="I345" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="346" spans="1:10" x14ac:dyDescent="0.3">
@@ -13652,10 +13652,10 @@
         <v>1172</v>
       </c>
       <c r="H346" t="s">
-        <v>1328</v>
+        <v>1324</v>
       </c>
       <c r="I346" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="347" spans="1:10" x14ac:dyDescent="0.3">
@@ -13678,10 +13678,10 @@
         <v>1173</v>
       </c>
       <c r="H347" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="I347" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="348" spans="1:10" x14ac:dyDescent="0.3">
@@ -13704,13 +13704,13 @@
         <v>968</v>
       </c>
       <c r="H348" t="s">
-        <v>1325</v>
+        <v>1321</v>
       </c>
       <c r="I348" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
       <c r="J348" t="s">
-        <v>1383</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="349" spans="1:10" x14ac:dyDescent="0.3">
@@ -13733,10 +13733,10 @@
         <v>985</v>
       </c>
       <c r="H349" t="s">
-        <v>1329</v>
+        <v>1325</v>
       </c>
       <c r="I349" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="350" spans="1:10" x14ac:dyDescent="0.3">
@@ -13759,10 +13759,10 @@
         <v>980</v>
       </c>
       <c r="H350" t="s">
-        <v>1329</v>
+        <v>1325</v>
       </c>
       <c r="I350" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="351" spans="1:10" x14ac:dyDescent="0.3">
@@ -13785,10 +13785,10 @@
         <v>1174</v>
       </c>
       <c r="H351" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="I351" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="352" spans="1:10" x14ac:dyDescent="0.3">
@@ -13811,10 +13811,10 @@
         <v>986</v>
       </c>
       <c r="H352" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="I352" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="353" spans="1:12" x14ac:dyDescent="0.3">
@@ -13837,13 +13837,13 @@
         <v>1175</v>
       </c>
       <c r="H353" t="s">
-        <v>1330</v>
+        <v>1326</v>
       </c>
       <c r="I353" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
       <c r="J353" t="s">
-        <v>1397</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="354" spans="1:12" x14ac:dyDescent="0.3">
@@ -13866,13 +13866,13 @@
         <v>1176</v>
       </c>
       <c r="H354" t="s">
-        <v>1330</v>
+        <v>1326</v>
       </c>
       <c r="I354" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
       <c r="J354" t="s">
-        <v>1397</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="355" spans="1:12" x14ac:dyDescent="0.3">
@@ -13895,19 +13895,19 @@
         <v>1142</v>
       </c>
       <c r="H355" t="s">
-        <v>1330</v>
+        <v>1326</v>
       </c>
       <c r="I355" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
       <c r="J355" t="s">
-        <v>1397</v>
+        <v>1393</v>
       </c>
       <c r="K355" t="s">
-        <v>1331</v>
+        <v>1327</v>
       </c>
       <c r="L355" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="356" spans="1:12" x14ac:dyDescent="0.3">
@@ -13930,10 +13930,10 @@
         <v>1177</v>
       </c>
       <c r="H356" t="s">
-        <v>1331</v>
+        <v>1327</v>
       </c>
       <c r="I356" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="357" spans="1:12" x14ac:dyDescent="0.3">
@@ -13956,10 +13956,10 @@
         <v>1178</v>
       </c>
       <c r="H357" t="s">
-        <v>1331</v>
+        <v>1327</v>
       </c>
       <c r="I357" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="358" spans="1:12" x14ac:dyDescent="0.3">
@@ -13982,10 +13982,10 @@
         <v>1179</v>
       </c>
       <c r="H358" t="s">
-        <v>1331</v>
+        <v>1327</v>
       </c>
       <c r="I358" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="359" spans="1:12" x14ac:dyDescent="0.3">
@@ -14008,10 +14008,10 @@
         <v>1180</v>
       </c>
       <c r="H359" t="s">
-        <v>1332</v>
+        <v>1328</v>
       </c>
       <c r="I359" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="360" spans="1:12" x14ac:dyDescent="0.3">
@@ -14034,10 +14034,10 @@
         <v>1181</v>
       </c>
       <c r="H360" t="s">
-        <v>1332</v>
+        <v>1328</v>
       </c>
       <c r="I360" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="361" spans="1:12" x14ac:dyDescent="0.3">
@@ -14063,10 +14063,10 @@
         <v>1182</v>
       </c>
       <c r="H361" t="s">
-        <v>1333</v>
+        <v>1329</v>
       </c>
       <c r="I361" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="362" spans="1:12" x14ac:dyDescent="0.3">
@@ -14092,10 +14092,10 @@
         <v>943</v>
       </c>
       <c r="H362" t="s">
-        <v>1333</v>
+        <v>1329</v>
       </c>
       <c r="I362" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="363" spans="1:12" x14ac:dyDescent="0.3">
@@ -14121,10 +14121,10 @@
         <v>1183</v>
       </c>
       <c r="H363" t="s">
-        <v>1333</v>
+        <v>1329</v>
       </c>
       <c r="I363" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="364" spans="1:12" x14ac:dyDescent="0.3">
@@ -14147,10 +14147,10 @@
         <v>1184</v>
       </c>
       <c r="H364" t="s">
-        <v>1379</v>
+        <v>1375</v>
       </c>
       <c r="I364" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="365" spans="1:12" x14ac:dyDescent="0.3">
@@ -14173,10 +14173,10 @@
         <v>955</v>
       </c>
       <c r="H365" t="s">
-        <v>1379</v>
+        <v>1375</v>
       </c>
       <c r="I365" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="366" spans="1:12" x14ac:dyDescent="0.3">
@@ -14199,10 +14199,10 @@
         <v>1170</v>
       </c>
       <c r="H366" t="s">
-        <v>1379</v>
+        <v>1375</v>
       </c>
       <c r="I366" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="367" spans="1:12" x14ac:dyDescent="0.3">
@@ -14225,10 +14225,10 @@
         <v>1185</v>
       </c>
       <c r="H367" t="s">
-        <v>1379</v>
+        <v>1375</v>
       </c>
       <c r="I367" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="368" spans="1:12" x14ac:dyDescent="0.3">
@@ -14251,10 +14251,10 @@
         <v>1186</v>
       </c>
       <c r="H368" t="s">
-        <v>1379</v>
+        <v>1375</v>
       </c>
       <c r="I368" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="369" spans="1:9" x14ac:dyDescent="0.3">
@@ -14277,10 +14277,10 @@
         <v>1021</v>
       </c>
       <c r="H369" t="s">
-        <v>1379</v>
+        <v>1375</v>
       </c>
       <c r="I369" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="370" spans="1:9" x14ac:dyDescent="0.3">
@@ -14303,10 +14303,10 @@
         <v>1187</v>
       </c>
       <c r="H370" t="s">
-        <v>1379</v>
+        <v>1375</v>
       </c>
       <c r="I370" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="371" spans="1:9" x14ac:dyDescent="0.3">
@@ -14329,10 +14329,10 @@
         <v>990</v>
       </c>
       <c r="H371" t="s">
-        <v>1334</v>
+        <v>1330</v>
       </c>
       <c r="I371" t="s">
-        <v>1382</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="372" spans="1:9" x14ac:dyDescent="0.3">
@@ -14355,10 +14355,10 @@
         <v>1188</v>
       </c>
       <c r="H372" t="s">
-        <v>1334</v>
+        <v>1330</v>
       </c>
       <c r="I372" t="s">
-        <v>1382</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="373" spans="1:9" x14ac:dyDescent="0.3">
@@ -14381,10 +14381,10 @@
         <v>1189</v>
       </c>
       <c r="H373" t="s">
-        <v>1335</v>
+        <v>1331</v>
       </c>
       <c r="I373" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="374" spans="1:9" x14ac:dyDescent="0.3">
@@ -14407,10 +14407,10 @@
         <v>991</v>
       </c>
       <c r="H374" t="s">
-        <v>1335</v>
+        <v>1331</v>
       </c>
       <c r="I374" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="375" spans="1:9" x14ac:dyDescent="0.3">
@@ -14433,10 +14433,10 @@
         <v>985</v>
       </c>
       <c r="H375" t="s">
-        <v>1336</v>
+        <v>1332</v>
       </c>
       <c r="I375" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="376" spans="1:9" x14ac:dyDescent="0.3">
@@ -14459,10 +14459,10 @@
         <v>985</v>
       </c>
       <c r="H376" t="s">
-        <v>1337</v>
+        <v>1333</v>
       </c>
       <c r="I376" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="377" spans="1:9" x14ac:dyDescent="0.3">
@@ -14485,10 +14485,10 @@
         <v>1177</v>
       </c>
       <c r="H377" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
       <c r="I377" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="378" spans="1:9" x14ac:dyDescent="0.3">
@@ -14511,10 +14511,10 @@
         <v>1190</v>
       </c>
       <c r="H378" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
       <c r="I378" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="379" spans="1:9" x14ac:dyDescent="0.3">
@@ -14537,10 +14537,10 @@
         <v>985</v>
       </c>
       <c r="H379" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
       <c r="I379" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="380" spans="1:9" x14ac:dyDescent="0.3">
@@ -14566,10 +14566,10 @@
         <v>1085</v>
       </c>
       <c r="H380" t="s">
-        <v>1339</v>
+        <v>1335</v>
       </c>
       <c r="I380" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="381" spans="1:9" x14ac:dyDescent="0.3">
@@ -14592,10 +14592,10 @@
         <v>1131</v>
       </c>
       <c r="H381" t="s">
-        <v>1339</v>
+        <v>1335</v>
       </c>
       <c r="I381" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="382" spans="1:9" x14ac:dyDescent="0.3">
@@ -14618,10 +14618,10 @@
         <v>1021</v>
       </c>
       <c r="H382" t="s">
-        <v>1339</v>
+        <v>1335</v>
       </c>
       <c r="I382" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="383" spans="1:9" x14ac:dyDescent="0.3">
@@ -14644,10 +14644,10 @@
         <v>1021</v>
       </c>
       <c r="H383" t="s">
-        <v>1339</v>
+        <v>1335</v>
       </c>
       <c r="I383" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="384" spans="1:9" x14ac:dyDescent="0.3">
@@ -14670,10 +14670,10 @@
         <v>1186</v>
       </c>
       <c r="H384" t="s">
-        <v>1339</v>
+        <v>1335</v>
       </c>
       <c r="I384" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="385" spans="1:9" x14ac:dyDescent="0.3">
@@ -14696,10 +14696,10 @@
         <v>940</v>
       </c>
       <c r="H385" t="s">
-        <v>1339</v>
+        <v>1335</v>
       </c>
       <c r="I385" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="386" spans="1:9" x14ac:dyDescent="0.3">
@@ -14722,10 +14722,10 @@
         <v>1191</v>
       </c>
       <c r="H386" t="s">
-        <v>1340</v>
+        <v>1336</v>
       </c>
       <c r="I386" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="387" spans="1:9" x14ac:dyDescent="0.3">
@@ -14748,10 +14748,10 @@
         <v>1023</v>
       </c>
       <c r="H387" t="s">
-        <v>1340</v>
+        <v>1336</v>
       </c>
       <c r="I387" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="388" spans="1:9" x14ac:dyDescent="0.3">
@@ -14774,10 +14774,10 @@
         <v>1192</v>
       </c>
       <c r="H388" t="s">
-        <v>1340</v>
+        <v>1336</v>
       </c>
       <c r="I388" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="389" spans="1:9" x14ac:dyDescent="0.3">
@@ -14800,10 +14800,10 @@
         <v>1193</v>
       </c>
       <c r="H389" t="s">
-        <v>1340</v>
+        <v>1336</v>
       </c>
       <c r="I389" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="390" spans="1:9" x14ac:dyDescent="0.3">
@@ -14826,10 +14826,10 @@
         <v>1194</v>
       </c>
       <c r="H390" t="s">
-        <v>1340</v>
+        <v>1336</v>
       </c>
       <c r="I390" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="391" spans="1:9" x14ac:dyDescent="0.3">
@@ -14852,10 +14852,10 @@
         <v>1195</v>
       </c>
       <c r="H391" t="s">
-        <v>1340</v>
+        <v>1336</v>
       </c>
       <c r="I391" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="392" spans="1:9" x14ac:dyDescent="0.3">
@@ -14878,10 +14878,10 @@
         <v>1196</v>
       </c>
       <c r="H392" t="s">
-        <v>1340</v>
+        <v>1336</v>
       </c>
       <c r="I392" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="393" spans="1:9" x14ac:dyDescent="0.3">
@@ -14904,10 +14904,10 @@
         <v>985</v>
       </c>
       <c r="H393" t="s">
-        <v>1341</v>
+        <v>1337</v>
       </c>
       <c r="I393" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="394" spans="1:9" x14ac:dyDescent="0.3">
@@ -14930,10 +14930,10 @@
         <v>985</v>
       </c>
       <c r="H394" t="s">
-        <v>1341</v>
+        <v>1337</v>
       </c>
       <c r="I394" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="395" spans="1:9" x14ac:dyDescent="0.3">
@@ -14956,10 +14956,10 @@
         <v>980</v>
       </c>
       <c r="H395" t="s">
-        <v>1341</v>
+        <v>1337</v>
       </c>
       <c r="I395" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="396" spans="1:9" x14ac:dyDescent="0.3">
@@ -14982,10 +14982,10 @@
         <v>985</v>
       </c>
       <c r="H396" t="s">
-        <v>1342</v>
+        <v>1338</v>
       </c>
       <c r="I396" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="397" spans="1:9" x14ac:dyDescent="0.3">
@@ -15008,10 +15008,10 @@
         <v>980</v>
       </c>
       <c r="H397" t="s">
-        <v>1310</v>
+        <v>1306</v>
       </c>
       <c r="I397" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="398" spans="1:9" x14ac:dyDescent="0.3">
@@ -15034,10 +15034,10 @@
         <v>980</v>
       </c>
       <c r="H398" t="s">
-        <v>1310</v>
+        <v>1306</v>
       </c>
       <c r="I398" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="399" spans="1:9" x14ac:dyDescent="0.3">
@@ -15060,10 +15060,10 @@
         <v>1197</v>
       </c>
       <c r="H399" t="s">
-        <v>1343</v>
+        <v>1339</v>
       </c>
       <c r="I399" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="400" spans="1:9" x14ac:dyDescent="0.3">
@@ -15089,10 +15089,10 @@
         <v>1198</v>
       </c>
       <c r="H400" t="s">
-        <v>1344</v>
+        <v>1340</v>
       </c>
       <c r="I400" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="401" spans="1:10" x14ac:dyDescent="0.3">
@@ -15118,10 +15118,10 @@
         <v>1199</v>
       </c>
       <c r="H401" t="s">
-        <v>1344</v>
+        <v>1340</v>
       </c>
       <c r="I401" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="402" spans="1:10" x14ac:dyDescent="0.3">
@@ -15147,10 +15147,10 @@
         <v>989</v>
       </c>
       <c r="H402" t="s">
-        <v>1344</v>
+        <v>1340</v>
       </c>
       <c r="I402" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="403" spans="1:10" x14ac:dyDescent="0.3">
@@ -15176,10 +15176,10 @@
         <v>1200</v>
       </c>
       <c r="H403" t="s">
-        <v>1344</v>
+        <v>1340</v>
       </c>
       <c r="I403" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="404" spans="1:10" x14ac:dyDescent="0.3">
@@ -15205,10 +15205,10 @@
         <v>1201</v>
       </c>
       <c r="H404" t="s">
-        <v>1344</v>
+        <v>1340</v>
       </c>
       <c r="I404" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="405" spans="1:10" x14ac:dyDescent="0.3">
@@ -15234,10 +15234,10 @@
         <v>1201</v>
       </c>
       <c r="H405" t="s">
-        <v>1344</v>
+        <v>1340</v>
       </c>
       <c r="I405" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="406" spans="1:10" x14ac:dyDescent="0.3">
@@ -15263,10 +15263,10 @@
         <v>985</v>
       </c>
       <c r="H406" t="s">
-        <v>1344</v>
+        <v>1340</v>
       </c>
       <c r="I406" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="407" spans="1:10" x14ac:dyDescent="0.3">
@@ -15292,10 +15292,10 @@
         <v>1202</v>
       </c>
       <c r="H407" t="s">
-        <v>1345</v>
+        <v>1341</v>
       </c>
       <c r="I407" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="408" spans="1:10" x14ac:dyDescent="0.3">
@@ -15321,10 +15321,10 @@
         <v>1203</v>
       </c>
       <c r="H408" t="s">
-        <v>1345</v>
+        <v>1341</v>
       </c>
       <c r="I408" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="409" spans="1:10" x14ac:dyDescent="0.3">
@@ -15350,10 +15350,10 @@
         <v>1204</v>
       </c>
       <c r="H409" t="s">
-        <v>1345</v>
+        <v>1341</v>
       </c>
       <c r="I409" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="410" spans="1:10" x14ac:dyDescent="0.3">
@@ -15379,10 +15379,10 @@
         <v>975</v>
       </c>
       <c r="H410" t="s">
-        <v>1345</v>
+        <v>1341</v>
       </c>
       <c r="I410" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="411" spans="1:10" x14ac:dyDescent="0.3">
@@ -15408,10 +15408,10 @@
         <v>1205</v>
       </c>
       <c r="H411" t="s">
-        <v>1345</v>
+        <v>1341</v>
       </c>
       <c r="I411" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="412" spans="1:10" x14ac:dyDescent="0.3">
@@ -15437,10 +15437,10 @@
         <v>1021</v>
       </c>
       <c r="H412" t="s">
-        <v>1345</v>
+        <v>1341</v>
       </c>
       <c r="I412" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="413" spans="1:10" x14ac:dyDescent="0.3">
@@ -15466,10 +15466,10 @@
         <v>935</v>
       </c>
       <c r="H413" t="s">
-        <v>1345</v>
+        <v>1341</v>
       </c>
       <c r="I413" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="414" spans="1:10" x14ac:dyDescent="0.3">
@@ -15495,10 +15495,10 @@
         <v>985</v>
       </c>
       <c r="H414" t="s">
-        <v>1346</v>
+        <v>1342</v>
       </c>
       <c r="I414" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="415" spans="1:10" x14ac:dyDescent="0.3">
@@ -15524,10 +15524,10 @@
         <v>985</v>
       </c>
       <c r="H415" t="s">
-        <v>1346</v>
+        <v>1342</v>
       </c>
       <c r="I415" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="416" spans="1:10" x14ac:dyDescent="0.3">
@@ -15550,13 +15550,13 @@
         <v>1206</v>
       </c>
       <c r="H416" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="I416" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
       <c r="J416" t="s">
-        <v>1383</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="417" spans="1:12" x14ac:dyDescent="0.3">
@@ -15579,13 +15579,13 @@
         <v>983</v>
       </c>
       <c r="H417" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="I417" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
       <c r="J417" t="s">
-        <v>1383</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="418" spans="1:12" x14ac:dyDescent="0.3">
@@ -15608,13 +15608,13 @@
         <v>985</v>
       </c>
       <c r="H418" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="I418" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
       <c r="J418" t="s">
-        <v>1383</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="419" spans="1:12" x14ac:dyDescent="0.3">
@@ -15637,13 +15637,13 @@
         <v>1207</v>
       </c>
       <c r="H419" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="I419" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
       <c r="J419" t="s">
-        <v>1383</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="420" spans="1:12" x14ac:dyDescent="0.3">
@@ -15666,19 +15666,19 @@
         <v>940</v>
       </c>
       <c r="H420" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="I420" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
       <c r="J420" t="s">
-        <v>1383</v>
+        <v>1379</v>
       </c>
       <c r="K420" t="s">
-        <v>1347</v>
+        <v>1343</v>
       </c>
       <c r="L420" t="s">
-        <v>1382</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="421" spans="1:12" x14ac:dyDescent="0.3">
@@ -15704,10 +15704,10 @@
         <v>975</v>
       </c>
       <c r="H421" t="s">
-        <v>1347</v>
+        <v>1343</v>
       </c>
       <c r="I421" t="s">
-        <v>1382</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="422" spans="1:12" x14ac:dyDescent="0.3">
@@ -15730,10 +15730,10 @@
         <v>980</v>
       </c>
       <c r="H422" t="s">
-        <v>1348</v>
+        <v>1344</v>
       </c>
       <c r="I422" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="423" spans="1:12" x14ac:dyDescent="0.3">
@@ -15756,10 +15756,10 @@
         <v>980</v>
       </c>
       <c r="H423" t="s">
-        <v>1349</v>
+        <v>1345</v>
       </c>
       <c r="I423" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="424" spans="1:12" x14ac:dyDescent="0.3">
@@ -15782,10 +15782,10 @@
         <v>1208</v>
       </c>
       <c r="H424" t="s">
-        <v>1376</v>
+        <v>1372</v>
       </c>
       <c r="I424" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="425" spans="1:12" x14ac:dyDescent="0.3">
@@ -15808,10 +15808,10 @@
         <v>1209</v>
       </c>
       <c r="H425" t="s">
-        <v>1376</v>
+        <v>1372</v>
       </c>
       <c r="I425" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="426" spans="1:12" x14ac:dyDescent="0.3">
@@ -15834,10 +15834,10 @@
         <v>1210</v>
       </c>
       <c r="H426" t="s">
-        <v>1376</v>
+        <v>1372</v>
       </c>
       <c r="I426" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="427" spans="1:12" x14ac:dyDescent="0.3">
@@ -15860,10 +15860,10 @@
         <v>1211</v>
       </c>
       <c r="H427" t="s">
-        <v>1376</v>
+        <v>1372</v>
       </c>
       <c r="I427" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="428" spans="1:12" x14ac:dyDescent="0.3">
@@ -15886,10 +15886,10 @@
         <v>1212</v>
       </c>
       <c r="H428" t="s">
-        <v>1376</v>
+        <v>1372</v>
       </c>
       <c r="I428" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="429" spans="1:12" x14ac:dyDescent="0.3">
@@ -15912,10 +15912,10 @@
         <v>1213</v>
       </c>
       <c r="H429" t="s">
-        <v>1376</v>
+        <v>1372</v>
       </c>
       <c r="I429" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="430" spans="1:12" x14ac:dyDescent="0.3">
@@ -15938,10 +15938,10 @@
         <v>1214</v>
       </c>
       <c r="H430" t="s">
-        <v>1350</v>
+        <v>1346</v>
       </c>
       <c r="I430" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="431" spans="1:12" x14ac:dyDescent="0.3">
@@ -15964,10 +15964,10 @@
         <v>1215</v>
       </c>
       <c r="H431" t="s">
-        <v>1350</v>
+        <v>1346</v>
       </c>
       <c r="I431" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="432" spans="1:12" x14ac:dyDescent="0.3">
@@ -15990,10 +15990,10 @@
         <v>1216</v>
       </c>
       <c r="H432" t="s">
-        <v>1350</v>
+        <v>1346</v>
       </c>
       <c r="I432" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="433" spans="1:14" x14ac:dyDescent="0.3">
@@ -16016,10 +16016,10 @@
         <v>1217</v>
       </c>
       <c r="H433" t="s">
-        <v>1350</v>
+        <v>1346</v>
       </c>
       <c r="I433" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="434" spans="1:14" x14ac:dyDescent="0.3">
@@ -16042,10 +16042,10 @@
         <v>1218</v>
       </c>
       <c r="H434" t="s">
-        <v>1350</v>
+        <v>1346</v>
       </c>
       <c r="I434" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="435" spans="1:14" x14ac:dyDescent="0.3">
@@ -16068,10 +16068,10 @@
         <v>1219</v>
       </c>
       <c r="H435" t="s">
-        <v>1351</v>
+        <v>1347</v>
       </c>
       <c r="I435" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="436" spans="1:14" x14ac:dyDescent="0.3">
@@ -16094,10 +16094,10 @@
         <v>1134</v>
       </c>
       <c r="H436" t="s">
-        <v>1351</v>
+        <v>1347</v>
       </c>
       <c r="I436" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="437" spans="1:14" x14ac:dyDescent="0.3">
@@ -16120,10 +16120,10 @@
         <v>1005</v>
       </c>
       <c r="H437" t="s">
-        <v>1352</v>
+        <v>1348</v>
       </c>
       <c r="I437" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="438" spans="1:14" x14ac:dyDescent="0.3">
@@ -16149,10 +16149,10 @@
         <v>1220</v>
       </c>
       <c r="H438" t="s">
-        <v>1353</v>
+        <v>1349</v>
       </c>
       <c r="I438" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="439" spans="1:14" x14ac:dyDescent="0.3">
@@ -16175,16 +16175,16 @@
         <v>1221</v>
       </c>
       <c r="H439" t="s">
-        <v>1353</v>
+        <v>1349</v>
       </c>
       <c r="I439" t="s">
+        <v>1376</v>
+      </c>
+      <c r="K439" t="s">
+        <v>1352</v>
+      </c>
+      <c r="L439" t="s">
         <v>1380</v>
-      </c>
-      <c r="K439" t="s">
-        <v>1356</v>
-      </c>
-      <c r="L439" t="s">
-        <v>1384</v>
       </c>
     </row>
     <row r="440" spans="1:14" x14ac:dyDescent="0.3">
@@ -16207,22 +16207,22 @@
         <v>1222</v>
       </c>
       <c r="H440" t="s">
-        <v>1353</v>
+        <v>1349</v>
       </c>
       <c r="I440" t="s">
+        <v>1376</v>
+      </c>
+      <c r="K440" t="s">
+        <v>1350</v>
+      </c>
+      <c r="L440" t="s">
+        <v>1377</v>
+      </c>
+      <c r="M440" t="s">
+        <v>1352</v>
+      </c>
+      <c r="N440" t="s">
         <v>1380</v>
-      </c>
-      <c r="K440" t="s">
-        <v>1354</v>
-      </c>
-      <c r="L440" t="s">
-        <v>1381</v>
-      </c>
-      <c r="M440" t="s">
-        <v>1356</v>
-      </c>
-      <c r="N440" t="s">
-        <v>1384</v>
       </c>
     </row>
     <row r="441" spans="1:14" x14ac:dyDescent="0.3">
@@ -16245,10 +16245,10 @@
         <v>985</v>
       </c>
       <c r="H441" t="s">
-        <v>1353</v>
+        <v>1349</v>
       </c>
       <c r="I441" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="442" spans="1:14" x14ac:dyDescent="0.3">
@@ -16271,10 +16271,10 @@
         <v>1223</v>
       </c>
       <c r="H442" t="s">
-        <v>1354</v>
+        <v>1350</v>
       </c>
       <c r="I442" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="443" spans="1:14" x14ac:dyDescent="0.3">
@@ -16297,10 +16297,10 @@
         <v>985</v>
       </c>
       <c r="H443" t="s">
-        <v>1354</v>
+        <v>1350</v>
       </c>
       <c r="I443" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="444" spans="1:14" x14ac:dyDescent="0.3">
@@ -16323,10 +16323,10 @@
         <v>980</v>
       </c>
       <c r="H444" t="s">
-        <v>1354</v>
+        <v>1350</v>
       </c>
       <c r="I444" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="445" spans="1:14" x14ac:dyDescent="0.3">
@@ -16349,10 +16349,10 @@
         <v>985</v>
       </c>
       <c r="H445" t="s">
-        <v>1355</v>
+        <v>1351</v>
       </c>
       <c r="I445" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="446" spans="1:14" x14ac:dyDescent="0.3">
@@ -16375,10 +16375,10 @@
         <v>1224</v>
       </c>
       <c r="H446" t="s">
-        <v>1356</v>
+        <v>1352</v>
       </c>
       <c r="I446" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="447" spans="1:14" x14ac:dyDescent="0.3">
@@ -16401,10 +16401,10 @@
         <v>985</v>
       </c>
       <c r="H447" t="s">
-        <v>1357</v>
+        <v>1353</v>
       </c>
       <c r="I447" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="448" spans="1:14" x14ac:dyDescent="0.3">
@@ -16427,10 +16427,10 @@
         <v>985</v>
       </c>
       <c r="H448" t="s">
-        <v>1358</v>
+        <v>1354</v>
       </c>
       <c r="I448" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="449" spans="1:9" x14ac:dyDescent="0.3">
@@ -16453,10 +16453,10 @@
         <v>980</v>
       </c>
       <c r="H449" t="s">
-        <v>1358</v>
+        <v>1354</v>
       </c>
       <c r="I449" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="450" spans="1:9" x14ac:dyDescent="0.3">
@@ -16479,10 +16479,10 @@
         <v>980</v>
       </c>
       <c r="H450" t="s">
-        <v>1358</v>
+        <v>1354</v>
       </c>
       <c r="I450" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="451" spans="1:9" x14ac:dyDescent="0.3">
@@ -16505,10 +16505,10 @@
         <v>1135</v>
       </c>
       <c r="H451" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
       <c r="I451" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="452" spans="1:9" x14ac:dyDescent="0.3">
@@ -16531,10 +16531,10 @@
         <v>1225</v>
       </c>
       <c r="H452" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
       <c r="I452" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="453" spans="1:9" x14ac:dyDescent="0.3">
@@ -16557,10 +16557,10 @@
         <v>1062</v>
       </c>
       <c r="H453" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
       <c r="I453" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="454" spans="1:9" x14ac:dyDescent="0.3">
@@ -16583,10 +16583,10 @@
         <v>1226</v>
       </c>
       <c r="H454" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
       <c r="I454" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="455" spans="1:9" x14ac:dyDescent="0.3">
@@ -16609,10 +16609,10 @@
         <v>1227</v>
       </c>
       <c r="H455" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
       <c r="I455" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="456" spans="1:9" x14ac:dyDescent="0.3">
@@ -16635,10 +16635,10 @@
         <v>1005</v>
       </c>
       <c r="H456" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
       <c r="I456" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="457" spans="1:9" x14ac:dyDescent="0.3">
@@ -16661,10 +16661,10 @@
         <v>1146</v>
       </c>
       <c r="H457" t="s">
-        <v>1360</v>
+        <v>1356</v>
       </c>
       <c r="I457" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="458" spans="1:9" x14ac:dyDescent="0.3">
@@ -16687,10 +16687,10 @@
         <v>980</v>
       </c>
       <c r="H458" t="s">
-        <v>1360</v>
+        <v>1356</v>
       </c>
       <c r="I458" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="459" spans="1:9" x14ac:dyDescent="0.3">
@@ -16713,10 +16713,10 @@
         <v>985</v>
       </c>
       <c r="H459" t="s">
-        <v>1361</v>
+        <v>1357</v>
       </c>
       <c r="I459" t="s">
-        <v>1386</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="460" spans="1:9" x14ac:dyDescent="0.3">
@@ -16739,10 +16739,10 @@
         <v>980</v>
       </c>
       <c r="H460" t="s">
-        <v>1362</v>
+        <v>1358</v>
       </c>
       <c r="I460" t="s">
-        <v>1386</v>
+        <v>1382</v>
       </c>
     </row>
   </sheetData>

--- a/data-migration/xlsx_1900-/1920_Winter.xlsx
+++ b/data-migration/xlsx_1900-/1920_Winter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\TEMP REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\TEMP_REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E7D5415-16E7-45E4-9CAA-4EDB5391E1A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB4CAB6D-245B-426C-B13A-A2DCA851DCC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3796,9 +3796,6 @@
     <t>vonwiller_p</t>
   </si>
   <si>
-    <t>frey_h</t>
-  </si>
-  <si>
     <t>vonmonakow_p</t>
   </si>
   <si>
@@ -3859,9 +3856,6 @@
     <t>bernheim_j</t>
   </si>
   <si>
-    <t>meyerrueegg_h</t>
-  </si>
-  <si>
     <t>meyerwirz_e</t>
   </si>
   <si>
@@ -4174,9 +4168,6 @@
     <t>nabholz_p</t>
   </si>
   <si>
-    <t>vonmonakow_c</t>
-  </si>
-  <si>
     <t>rothlin_e</t>
   </si>
   <si>
@@ -4217,6 +4208,15 @@
   </si>
   <si>
     <t>nager_fr</t>
+  </si>
+  <si>
+    <t>frey_h2</t>
+  </si>
+  <si>
+    <t>meyer-rueegg_h</t>
+  </si>
+  <si>
+    <t>monakow_c</t>
   </si>
 </sst>
 </file>
@@ -4252,8 +4252,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -4560,8 +4563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N460"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A155" workbookViewId="0">
-      <selection activeCell="F164" sqref="F164"/>
+    <sheetView tabSelected="1" topLeftCell="C8" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4595,7 +4598,7 @@
         <v>1228</v>
       </c>
       <c r="I1" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -4621,7 +4624,7 @@
         <v>1229</v>
       </c>
       <c r="I2" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -4647,10 +4650,10 @@
         <v>1230</v>
       </c>
       <c r="I3" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="J3" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -4673,10 +4676,10 @@
         <v>929</v>
       </c>
       <c r="H4" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="I4" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -4702,7 +4705,7 @@
         <v>1232</v>
       </c>
       <c r="I5" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -4725,10 +4728,10 @@
         <v>931</v>
       </c>
       <c r="H6" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="I6" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -4754,7 +4757,7 @@
         <v>1232</v>
       </c>
       <c r="I7" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -4780,10 +4783,10 @@
         <v>1230</v>
       </c>
       <c r="I8" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="J8" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -4809,7 +4812,7 @@
         <v>1228</v>
       </c>
       <c r="I9" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -4832,10 +4835,10 @@
         <v>935</v>
       </c>
       <c r="H10" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="I10" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -4861,7 +4864,7 @@
         <v>1228</v>
       </c>
       <c r="I11" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -4887,7 +4890,7 @@
         <v>1231</v>
       </c>
       <c r="I12" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -4913,7 +4916,7 @@
         <v>1231</v>
       </c>
       <c r="I13" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -4939,7 +4942,7 @@
         <v>1229</v>
       </c>
       <c r="I14" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -4965,7 +4968,7 @@
         <v>1233</v>
       </c>
       <c r="I15" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -4991,7 +4994,7 @@
         <v>1229</v>
       </c>
       <c r="I16" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -5017,10 +5020,10 @@
         <v>1230</v>
       </c>
       <c r="I17" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="J17" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -5046,7 +5049,7 @@
         <v>1234</v>
       </c>
       <c r="I18" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -5072,7 +5075,7 @@
         <v>1231</v>
       </c>
       <c r="I19" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -5098,10 +5101,10 @@
         <v>1230</v>
       </c>
       <c r="I20" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="J20" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -5127,7 +5130,7 @@
         <v>1228</v>
       </c>
       <c r="I21" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -5153,7 +5156,7 @@
         <v>1231</v>
       </c>
       <c r="I22" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -5179,7 +5182,7 @@
         <v>1233</v>
       </c>
       <c r="I23" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -5205,7 +5208,7 @@
         <v>1233</v>
       </c>
       <c r="I24" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -5231,10 +5234,10 @@
         <v>1230</v>
       </c>
       <c r="I25" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="J25" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -5260,7 +5263,7 @@
         <v>1235</v>
       </c>
       <c r="I26" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -5286,7 +5289,7 @@
         <v>1236</v>
       </c>
       <c r="I27" t="s">
-        <v>1378</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -5309,10 +5312,10 @@
         <v>950</v>
       </c>
       <c r="H28" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="I28" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
@@ -5335,10 +5338,10 @@
         <v>951</v>
       </c>
       <c r="H29" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="I29" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
@@ -5364,7 +5367,7 @@
         <v>1237</v>
       </c>
       <c r="I30" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
@@ -5390,7 +5393,7 @@
         <v>1237</v>
       </c>
       <c r="I31" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
@@ -5416,7 +5419,7 @@
         <v>1238</v>
       </c>
       <c r="I32" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
@@ -5442,7 +5445,7 @@
         <v>1238</v>
       </c>
       <c r="I33" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
@@ -5468,7 +5471,7 @@
         <v>1237</v>
       </c>
       <c r="I34" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
@@ -5491,10 +5494,10 @@
         <v>956</v>
       </c>
       <c r="H35" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
       <c r="I35" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
@@ -5520,7 +5523,7 @@
         <v>1238</v>
       </c>
       <c r="I36" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
@@ -5546,7 +5549,7 @@
         <v>1237</v>
       </c>
       <c r="I37" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
@@ -5572,7 +5575,7 @@
         <v>1239</v>
       </c>
       <c r="I38" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
@@ -5598,7 +5601,7 @@
         <v>1239</v>
       </c>
       <c r="I39" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
@@ -5624,7 +5627,7 @@
         <v>1235</v>
       </c>
       <c r="I40" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
@@ -5650,7 +5653,7 @@
         <v>1240</v>
       </c>
       <c r="I41" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
@@ -5673,10 +5676,10 @@
         <v>963</v>
       </c>
       <c r="H42" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="I42" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
@@ -5702,7 +5705,7 @@
         <v>1241</v>
       </c>
       <c r="I43" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
@@ -5725,10 +5728,10 @@
         <v>965</v>
       </c>
       <c r="H44" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="I44" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
@@ -5751,10 +5754,10 @@
         <v>966</v>
       </c>
       <c r="H45" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="I45" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
@@ -5780,7 +5783,7 @@
         <v>1242</v>
       </c>
       <c r="I46" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
@@ -5806,7 +5809,7 @@
         <v>1242</v>
       </c>
       <c r="I47" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
@@ -5832,7 +5835,7 @@
         <v>1243</v>
       </c>
       <c r="I48" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
@@ -5858,7 +5861,7 @@
         <v>1243</v>
       </c>
       <c r="I49" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
@@ -5884,7 +5887,7 @@
         <v>1244</v>
       </c>
       <c r="I50" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
@@ -5907,10 +5910,10 @@
         <v>972</v>
       </c>
       <c r="H51" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="I51" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
@@ -5933,10 +5936,10 @@
         <v>973</v>
       </c>
       <c r="H52" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="I52" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
@@ -5959,10 +5962,10 @@
         <v>974</v>
       </c>
       <c r="H53" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="I53" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
@@ -5988,7 +5991,7 @@
         <v>1244</v>
       </c>
       <c r="I54" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
@@ -6014,10 +6017,10 @@
         <v>1246</v>
       </c>
       <c r="I55" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="J55" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
@@ -6040,10 +6043,10 @@
         <v>977</v>
       </c>
       <c r="H56" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="I56" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
@@ -6066,10 +6069,10 @@
         <v>978</v>
       </c>
       <c r="H57" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="I57" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
@@ -6095,7 +6098,7 @@
         <v>1248</v>
       </c>
       <c r="I58" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
@@ -6118,10 +6121,10 @@
         <v>980</v>
       </c>
       <c r="H59" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="I59" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
@@ -6147,7 +6150,7 @@
         <v>1250</v>
       </c>
       <c r="I60" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
@@ -6173,7 +6176,7 @@
         <v>1250</v>
       </c>
       <c r="I61" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
@@ -6199,7 +6202,7 @@
         <v>1251</v>
       </c>
       <c r="I62" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
@@ -6225,7 +6228,7 @@
         <v>1252</v>
       </c>
       <c r="I63" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
@@ -6251,7 +6254,7 @@
         <v>1253</v>
       </c>
       <c r="I64" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.3">
@@ -6277,7 +6280,7 @@
         <v>1254</v>
       </c>
       <c r="I65" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.3">
@@ -6303,7 +6306,7 @@
         <v>1235</v>
       </c>
       <c r="I66" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.3">
@@ -6329,7 +6332,7 @@
         <v>1236</v>
       </c>
       <c r="I67" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.3">
@@ -6355,7 +6358,7 @@
         <v>1237</v>
       </c>
       <c r="I68" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.3">
@@ -6378,10 +6381,10 @@
         <v>968</v>
       </c>
       <c r="H69" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="I69" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.3">
@@ -6407,7 +6410,7 @@
         <v>1235</v>
       </c>
       <c r="I70" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.3">
@@ -6433,7 +6436,7 @@
         <v>1255</v>
       </c>
       <c r="I71" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.3">
@@ -6459,7 +6462,7 @@
         <v>1242</v>
       </c>
       <c r="I72" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.3">
@@ -6485,7 +6488,7 @@
         <v>1242</v>
       </c>
       <c r="I73" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.3">
@@ -6511,10 +6514,10 @@
         <v>1246</v>
       </c>
       <c r="I74" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="J74" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.3">
@@ -6540,10 +6543,10 @@
         <v>1246</v>
       </c>
       <c r="I75" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="J75" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.3">
@@ -6566,10 +6569,10 @@
         <v>993</v>
       </c>
       <c r="H76" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="I76" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.3">
@@ -6592,10 +6595,10 @@
         <v>929</v>
       </c>
       <c r="H77" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="I77" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.3">
@@ -6621,7 +6624,7 @@
         <v>1250</v>
       </c>
       <c r="I78" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.3">
@@ -6647,19 +6650,19 @@
         <v>1256</v>
       </c>
       <c r="I79" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="K79" t="s">
-        <v>1258</v>
+        <v>1396</v>
       </c>
       <c r="L79" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="M79" t="s">
         <v>1257</v>
       </c>
       <c r="N79" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.3">
@@ -6688,7 +6691,7 @@
         <v>1256</v>
       </c>
       <c r="I80" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
@@ -6714,7 +6717,7 @@
         <v>1256</v>
       </c>
       <c r="I81" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
@@ -6743,7 +6746,7 @@
         <v>1257</v>
       </c>
       <c r="I82" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
@@ -6766,10 +6769,10 @@
         <v>999</v>
       </c>
       <c r="H83" t="s">
-        <v>1258</v>
+        <v>1396</v>
       </c>
       <c r="I83" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
@@ -6792,10 +6795,10 @@
         <v>1000</v>
       </c>
       <c r="H84" t="s">
-        <v>1258</v>
+        <v>1396</v>
       </c>
       <c r="I84" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
@@ -6818,10 +6821,10 @@
         <v>1001</v>
       </c>
       <c r="H85" t="s">
-        <v>1258</v>
+        <v>1396</v>
       </c>
       <c r="I85" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
@@ -6844,10 +6847,10 @@
         <v>955</v>
       </c>
       <c r="H86" t="s">
-        <v>1384</v>
+        <v>1398</v>
       </c>
       <c r="I86" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
@@ -6870,10 +6873,10 @@
         <v>1002</v>
       </c>
       <c r="H87" t="s">
-        <v>1384</v>
+        <v>1398</v>
       </c>
       <c r="I87" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
@@ -6896,10 +6899,10 @@
         <v>1003</v>
       </c>
       <c r="H88" t="s">
-        <v>1384</v>
+        <v>1398</v>
       </c>
       <c r="I88" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
@@ -6922,10 +6925,10 @@
         <v>1004</v>
       </c>
       <c r="H89" t="s">
-        <v>1384</v>
+        <v>1398</v>
       </c>
       <c r="I89" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
@@ -6948,10 +6951,10 @@
         <v>987</v>
       </c>
       <c r="H90" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="I90" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
@@ -6974,10 +6977,10 @@
         <v>1005</v>
       </c>
       <c r="H91" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="I91" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
@@ -7000,10 +7003,10 @@
         <v>1006</v>
       </c>
       <c r="H92" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="I92" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
@@ -7026,10 +7029,10 @@
         <v>1007</v>
       </c>
       <c r="H93" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="I93" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.3">
@@ -7052,10 +7055,10 @@
         <v>1008</v>
       </c>
       <c r="H94" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="I94" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
@@ -7078,10 +7081,10 @@
         <v>1009</v>
       </c>
       <c r="H95" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="I95" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
@@ -7104,10 +7107,10 @@
         <v>980</v>
       </c>
       <c r="H96" t="s">
-        <v>1385</v>
+        <v>1382</v>
       </c>
       <c r="I96" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.3">
@@ -7130,10 +7133,10 @@
         <v>1010</v>
       </c>
       <c r="H97" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="I97" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.3">
@@ -7156,10 +7159,10 @@
         <v>1011</v>
       </c>
       <c r="H98" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="I98" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.3">
@@ -7182,10 +7185,10 @@
         <v>1012</v>
       </c>
       <c r="H99" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="I99" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.3">
@@ -7208,10 +7211,10 @@
         <v>963</v>
       </c>
       <c r="H100" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="I100" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.3">
@@ -7234,10 +7237,10 @@
         <v>1013</v>
       </c>
       <c r="H101" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="I101" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.3">
@@ -7260,10 +7263,10 @@
         <v>1014</v>
       </c>
       <c r="H102" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="I102" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.3">
@@ -7286,10 +7289,10 @@
         <v>1015</v>
       </c>
       <c r="H103" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="I103" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.3">
@@ -7312,10 +7315,10 @@
         <v>1014</v>
       </c>
       <c r="H104" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="I104" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.3">
@@ -7338,10 +7341,10 @@
         <v>1016</v>
       </c>
       <c r="H105" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="I105" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.3">
@@ -7364,10 +7367,10 @@
         <v>1017</v>
       </c>
       <c r="H106" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="I106" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.3">
@@ -7390,10 +7393,10 @@
         <v>975</v>
       </c>
       <c r="H107" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="I107" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.3">
@@ -7416,10 +7419,10 @@
         <v>1018</v>
       </c>
       <c r="H108" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="I108" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.3">
@@ -7442,10 +7445,10 @@
         <v>980</v>
       </c>
       <c r="H109" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="I109" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.3">
@@ -7468,13 +7471,13 @@
         <v>1019</v>
       </c>
       <c r="H110" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="I110" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="J110" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.3">
@@ -7497,13 +7500,13 @@
         <v>1020</v>
       </c>
       <c r="H111" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="I111" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="J111" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.3">
@@ -7526,13 +7529,13 @@
         <v>1021</v>
       </c>
       <c r="H112" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="I112" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="J112" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.3">
@@ -7555,10 +7558,10 @@
         <v>1022</v>
       </c>
       <c r="H113" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="I113" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.3">
@@ -7581,10 +7584,10 @@
         <v>980</v>
       </c>
       <c r="H114" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="I114" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.3">
@@ -7607,10 +7610,10 @@
         <v>980</v>
       </c>
       <c r="H115" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="I115" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.3">
@@ -7633,10 +7636,10 @@
         <v>1023</v>
       </c>
       <c r="H116" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="I116" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.3">
@@ -7659,10 +7662,10 @@
         <v>1024</v>
       </c>
       <c r="H117" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="I117" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.3">
@@ -7685,10 +7688,10 @@
         <v>1025</v>
       </c>
       <c r="H118" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="I118" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.3">
@@ -7711,10 +7714,10 @@
         <v>1026</v>
       </c>
       <c r="H119" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="I119" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.3">
@@ -7737,10 +7740,10 @@
         <v>985</v>
       </c>
       <c r="H120" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="I120" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.3">
@@ -7763,10 +7766,10 @@
         <v>980</v>
       </c>
       <c r="H121" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="I121" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.3">
@@ -7789,10 +7792,10 @@
         <v>980</v>
       </c>
       <c r="H122" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="I122" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.3">
@@ -7815,10 +7818,10 @@
         <v>1027</v>
       </c>
       <c r="H123" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="I123" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.3">
@@ -7841,10 +7844,10 @@
         <v>1028</v>
       </c>
       <c r="H124" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="I124" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.3">
@@ -7867,16 +7870,16 @@
         <v>1029</v>
       </c>
       <c r="H125" t="s">
+        <v>1270</v>
+      </c>
+      <c r="I125" t="s">
+        <v>1374</v>
+      </c>
+      <c r="K125" t="s">
         <v>1271</v>
       </c>
-      <c r="I125" t="s">
-        <v>1376</v>
-      </c>
-      <c r="K125" t="s">
-        <v>1272</v>
-      </c>
       <c r="L125" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.3">
@@ -7899,10 +7902,10 @@
         <v>1030</v>
       </c>
       <c r="H126" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="I126" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.3">
@@ -7925,10 +7928,10 @@
         <v>1031</v>
       </c>
       <c r="H127" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="I127" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.3">
@@ -7951,10 +7954,10 @@
         <v>980</v>
       </c>
       <c r="H128" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="I128" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.3">
@@ -7977,10 +7980,10 @@
         <v>1032</v>
       </c>
       <c r="H129" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="I129" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.3">
@@ -8003,10 +8006,10 @@
         <v>1033</v>
       </c>
       <c r="H130" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="I130" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.3">
@@ -8029,10 +8032,10 @@
         <v>1034</v>
       </c>
       <c r="H131" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="I131" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.3">
@@ -8055,10 +8058,10 @@
         <v>1035</v>
       </c>
       <c r="H132" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="I132" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.3">
@@ -8081,10 +8084,10 @@
         <v>1036</v>
       </c>
       <c r="H133" t="s">
-        <v>1386</v>
+        <v>1383</v>
       </c>
       <c r="I133" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.3">
@@ -8107,10 +8110,10 @@
         <v>975</v>
       </c>
       <c r="H134" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="I134" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.3">
@@ -8133,10 +8136,10 @@
         <v>1037</v>
       </c>
       <c r="H135" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="I135" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.3">
@@ -8159,10 +8162,10 @@
         <v>947</v>
       </c>
       <c r="H136" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="I136" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.3">
@@ -8185,10 +8188,10 @@
         <v>957</v>
       </c>
       <c r="H137" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="I137" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.3">
@@ -8211,10 +8214,10 @@
         <v>1001</v>
       </c>
       <c r="H138" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="I138" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.3">
@@ -8237,10 +8240,10 @@
         <v>1038</v>
       </c>
       <c r="H139" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="I139" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.3">
@@ -8262,11 +8265,11 @@
       <c r="G140" t="s">
         <v>1039</v>
       </c>
-      <c r="H140" t="s">
-        <v>1279</v>
+      <c r="H140" s="1" t="s">
+        <v>1397</v>
       </c>
       <c r="I140" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.3">
@@ -8289,10 +8292,10 @@
         <v>1040</v>
       </c>
       <c r="H141" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="I141" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.3">
@@ -8315,10 +8318,10 @@
         <v>1041</v>
       </c>
       <c r="H142" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="I142" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.3">
@@ -8341,10 +8344,10 @@
         <v>1042</v>
       </c>
       <c r="H143" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="I143" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.3">
@@ -8367,10 +8370,10 @@
         <v>1043</v>
       </c>
       <c r="H144" t="s">
-        <v>1387</v>
+        <v>1384</v>
       </c>
       <c r="I144" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.3">
@@ -8393,10 +8396,10 @@
         <v>1044</v>
       </c>
       <c r="H145" t="s">
-        <v>1387</v>
+        <v>1384</v>
       </c>
       <c r="I145" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.3">
@@ -8419,10 +8422,10 @@
         <v>1045</v>
       </c>
       <c r="H146" t="s">
-        <v>1387</v>
+        <v>1384</v>
       </c>
       <c r="I146" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.3">
@@ -8445,10 +8448,10 @@
         <v>1046</v>
       </c>
       <c r="H147" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="I147" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.3">
@@ -8471,10 +8474,10 @@
         <v>1047</v>
       </c>
       <c r="H148" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="I148" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.3">
@@ -8500,7 +8503,7 @@
         <v>1245</v>
       </c>
       <c r="I149" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.3">
@@ -8526,7 +8529,7 @@
         <v>1245</v>
       </c>
       <c r="I150" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.3">
@@ -8552,7 +8555,7 @@
         <v>1245</v>
       </c>
       <c r="I151" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.3">
@@ -8575,10 +8578,10 @@
         <v>1030</v>
       </c>
       <c r="H152" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="I152" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.3">
@@ -8601,10 +8604,10 @@
         <v>1049</v>
       </c>
       <c r="H153" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="I153" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.3">
@@ -8627,10 +8630,10 @@
         <v>971</v>
       </c>
       <c r="H154" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="I154" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.3">
@@ -8653,10 +8656,10 @@
         <v>1050</v>
       </c>
       <c r="H155" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="I155" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.3">
@@ -8679,10 +8682,10 @@
         <v>1051</v>
       </c>
       <c r="H156" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="I156" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.3">
@@ -8705,10 +8708,10 @@
         <v>955</v>
       </c>
       <c r="H157" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="I157" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.3">
@@ -8731,10 +8734,10 @@
         <v>1052</v>
       </c>
       <c r="H158" t="s">
-        <v>1388</v>
+        <v>1385</v>
       </c>
       <c r="I158" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.3">
@@ -8757,10 +8760,10 @@
         <v>1053</v>
       </c>
       <c r="H159" t="s">
-        <v>1388</v>
+        <v>1385</v>
       </c>
       <c r="I159" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.3">
@@ -8783,10 +8786,10 @@
         <v>1054</v>
       </c>
       <c r="H160" t="s">
-        <v>1388</v>
+        <v>1385</v>
       </c>
       <c r="I160" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.3">
@@ -8809,10 +8812,10 @@
         <v>1055</v>
       </c>
       <c r="H161" t="s">
-        <v>1388</v>
+        <v>1385</v>
       </c>
       <c r="I161" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.3">
@@ -8835,10 +8838,10 @@
         <v>980</v>
       </c>
       <c r="H162" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="I162" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.3">
@@ -8861,10 +8864,10 @@
         <v>980</v>
       </c>
       <c r="H163" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="I163" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.3">
@@ -8887,10 +8890,10 @@
         <v>963</v>
       </c>
       <c r="H164" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="I164" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.3">
@@ -8913,10 +8916,10 @@
         <v>1056</v>
       </c>
       <c r="H165" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="I165" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.3">
@@ -8939,10 +8942,10 @@
         <v>1057</v>
       </c>
       <c r="H166" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="I166" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.3">
@@ -8965,10 +8968,10 @@
         <v>1058</v>
       </c>
       <c r="H167" t="s">
-        <v>1398</v>
+        <v>1395</v>
       </c>
       <c r="I167" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.3">
@@ -8991,10 +8994,10 @@
         <v>1059</v>
       </c>
       <c r="H168" t="s">
-        <v>1398</v>
+        <v>1395</v>
       </c>
       <c r="I168" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.3">
@@ -9017,10 +9020,10 @@
         <v>1060</v>
       </c>
       <c r="H169" t="s">
-        <v>1398</v>
+        <v>1395</v>
       </c>
       <c r="I169" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.3">
@@ -9043,10 +9046,10 @@
         <v>1061</v>
       </c>
       <c r="H170" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="I170" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.3">
@@ -9069,10 +9072,10 @@
         <v>1062</v>
       </c>
       <c r="H171" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="I171" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.3">
@@ -9095,10 +9098,10 @@
         <v>1063</v>
       </c>
       <c r="H172" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="I172" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.3">
@@ -9121,10 +9124,10 @@
         <v>1064</v>
       </c>
       <c r="H173" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="I173" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.3">
@@ -9147,10 +9150,10 @@
         <v>1065</v>
       </c>
       <c r="H174" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="I174" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.3">
@@ -9173,10 +9176,10 @@
         <v>1066</v>
       </c>
       <c r="H175" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="I175" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.3">
@@ -9199,10 +9202,10 @@
         <v>1067</v>
       </c>
       <c r="H176" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="I176" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.3">
@@ -9225,10 +9228,10 @@
         <v>1068</v>
       </c>
       <c r="H177" t="s">
-        <v>1394</v>
+        <v>1391</v>
       </c>
       <c r="I177" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.3">
@@ -9251,10 +9254,10 @@
         <v>1069</v>
       </c>
       <c r="H178" t="s">
-        <v>1394</v>
+        <v>1391</v>
       </c>
       <c r="I178" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.3">
@@ -9277,10 +9280,10 @@
         <v>1070</v>
       </c>
       <c r="H179" t="s">
-        <v>1394</v>
+        <v>1391</v>
       </c>
       <c r="I179" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.3">
@@ -9303,10 +9306,10 @@
         <v>1071</v>
       </c>
       <c r="H180" t="s">
-        <v>1394</v>
+        <v>1391</v>
       </c>
       <c r="I180" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.3">
@@ -9329,10 +9332,10 @@
         <v>1072</v>
       </c>
       <c r="H181" t="s">
-        <v>1394</v>
+        <v>1391</v>
       </c>
       <c r="I181" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.3">
@@ -9355,10 +9358,10 @@
         <v>980</v>
       </c>
       <c r="H182" t="s">
-        <v>1394</v>
+        <v>1391</v>
       </c>
       <c r="I182" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.3">
@@ -9381,10 +9384,10 @@
         <v>1073</v>
       </c>
       <c r="H183" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="I183" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.3">
@@ -9407,10 +9410,10 @@
         <v>1074</v>
       </c>
       <c r="H184" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="I184" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.3">
@@ -9433,10 +9436,10 @@
         <v>1000</v>
       </c>
       <c r="H185" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="I185" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.3">
@@ -9459,10 +9462,10 @@
         <v>1075</v>
       </c>
       <c r="H186" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="I186" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.3">
@@ -9485,10 +9488,10 @@
         <v>1076</v>
       </c>
       <c r="H187" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="I187" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.3">
@@ -9511,10 +9514,10 @@
         <v>1077</v>
       </c>
       <c r="H188" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="I188" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.3">
@@ -9537,16 +9540,16 @@
         <v>1078</v>
       </c>
       <c r="H189" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="I189" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="K189" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="L189" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.3">
@@ -9569,10 +9572,10 @@
         <v>979</v>
       </c>
       <c r="H190" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="I190" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.3">
@@ -9595,10 +9598,10 @@
         <v>1021</v>
       </c>
       <c r="H191" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="I191" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.3">
@@ -9621,10 +9624,10 @@
         <v>1079</v>
       </c>
       <c r="H192" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="I192" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.3">
@@ -9647,10 +9650,10 @@
         <v>1080</v>
       </c>
       <c r="H193" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="I193" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.3">
@@ -9673,10 +9676,10 @@
         <v>980</v>
       </c>
       <c r="H194" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="I194" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.3">
@@ -9699,10 +9702,10 @@
         <v>1081</v>
       </c>
       <c r="H195" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="I195" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.3">
@@ -9725,10 +9728,10 @@
         <v>1082</v>
       </c>
       <c r="H196" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="I196" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.3">
@@ -9751,10 +9754,10 @@
         <v>1083</v>
       </c>
       <c r="H197" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="I197" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.3">
@@ -9777,10 +9780,10 @@
         <v>1084</v>
       </c>
       <c r="H198" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="I198" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.3">
@@ -9803,10 +9806,10 @@
         <v>1021</v>
       </c>
       <c r="H199" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="I199" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.3">
@@ -9829,10 +9832,10 @@
         <v>1085</v>
       </c>
       <c r="H200" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="I200" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.3">
@@ -9855,10 +9858,10 @@
         <v>1086</v>
       </c>
       <c r="H201" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="I201" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.3">
@@ -9881,10 +9884,10 @@
         <v>1087</v>
       </c>
       <c r="H202" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="I202" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.3">
@@ -9907,13 +9910,13 @@
         <v>1088</v>
       </c>
       <c r="H203" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="I203" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="J203" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.3">
@@ -9936,13 +9939,13 @@
         <v>1089</v>
       </c>
       <c r="H204" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="I204" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="J204" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.3">
@@ -9965,13 +9968,13 @@
         <v>1090</v>
       </c>
       <c r="H205" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="I205" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="J205" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.3">
@@ -9994,13 +9997,13 @@
         <v>1091</v>
       </c>
       <c r="H206" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="I206" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="J206" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.3">
@@ -10023,13 +10026,13 @@
         <v>1021</v>
       </c>
       <c r="H207" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="I207" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="J207" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.3">
@@ -10052,10 +10055,10 @@
         <v>1092</v>
       </c>
       <c r="H208" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="I208" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.3">
@@ -10078,10 +10081,10 @@
         <v>1071</v>
       </c>
       <c r="H209" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="I209" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.3">
@@ -10104,10 +10107,10 @@
         <v>1093</v>
       </c>
       <c r="H210" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="I210" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.3">
@@ -10130,10 +10133,10 @@
         <v>1094</v>
       </c>
       <c r="H211" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="I211" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.3">
@@ -10156,10 +10159,10 @@
         <v>1095</v>
       </c>
       <c r="H212" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="I212" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.3">
@@ -10182,10 +10185,10 @@
         <v>1096</v>
       </c>
       <c r="H213" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="I213" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.3">
@@ -10208,10 +10211,10 @@
         <v>1097</v>
       </c>
       <c r="H214" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="I214" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.3">
@@ -10234,10 +10237,10 @@
         <v>1021</v>
       </c>
       <c r="H215" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="I215" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.3">
@@ -10260,10 +10263,10 @@
         <v>1039</v>
       </c>
       <c r="H216" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="I216" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.3">
@@ -10286,10 +10289,10 @@
         <v>1021</v>
       </c>
       <c r="H217" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="I217" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.3">
@@ -10312,10 +10315,10 @@
         <v>1098</v>
       </c>
       <c r="H218" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="I218" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.3">
@@ -10338,10 +10341,10 @@
         <v>1099</v>
       </c>
       <c r="H219" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="I219" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.3">
@@ -10364,10 +10367,10 @@
         <v>978</v>
       </c>
       <c r="H220" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="I220" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.3">
@@ -10390,10 +10393,10 @@
         <v>1100</v>
       </c>
       <c r="H221" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="I221" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.3">
@@ -10416,10 +10419,10 @@
         <v>972</v>
       </c>
       <c r="H222" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="I222" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.3">
@@ -10442,10 +10445,10 @@
         <v>1101</v>
       </c>
       <c r="H223" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="I223" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.3">
@@ -10468,10 +10471,10 @@
         <v>1102</v>
       </c>
       <c r="H224" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="I224" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.3">
@@ -10497,7 +10500,7 @@
         <v>1236</v>
       </c>
       <c r="I225" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.3">
@@ -10520,10 +10523,10 @@
         <v>956</v>
       </c>
       <c r="H226" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="I226" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.3">
@@ -10546,10 +10549,10 @@
         <v>985</v>
       </c>
       <c r="H227" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="I227" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.3">
@@ -10572,10 +10575,10 @@
         <v>1104</v>
       </c>
       <c r="H228" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="I228" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.3">
@@ -10598,10 +10601,10 @@
         <v>1059</v>
       </c>
       <c r="H229" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="I229" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.3">
@@ -10624,10 +10627,10 @@
         <v>982</v>
       </c>
       <c r="H230" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="I230" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.3">
@@ -10650,10 +10653,10 @@
         <v>1105</v>
       </c>
       <c r="H231" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="I231" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.3">
@@ -10679,7 +10682,7 @@
         <v>1236</v>
       </c>
       <c r="I232" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.3">
@@ -10705,7 +10708,7 @@
         <v>1236</v>
       </c>
       <c r="I233" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.3">
@@ -10728,10 +10731,10 @@
         <v>973</v>
       </c>
       <c r="H234" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="I234" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.3">
@@ -10754,10 +10757,10 @@
         <v>1107</v>
       </c>
       <c r="H235" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="I235" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.3">
@@ -10780,10 +10783,10 @@
         <v>945</v>
       </c>
       <c r="H236" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="I236" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.3">
@@ -10806,10 +10809,10 @@
         <v>1108</v>
       </c>
       <c r="H237" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="I237" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.3">
@@ -10832,10 +10835,10 @@
         <v>1109</v>
       </c>
       <c r="H238" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="I238" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.3">
@@ -10858,10 +10861,10 @@
         <v>1030</v>
       </c>
       <c r="H239" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="I239" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.3">
@@ -10884,10 +10887,10 @@
         <v>1110</v>
       </c>
       <c r="H240" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="I240" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.3">
@@ -10910,10 +10913,10 @@
         <v>980</v>
       </c>
       <c r="H241" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="I241" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.3">
@@ -10936,10 +10939,10 @@
         <v>1111</v>
       </c>
       <c r="H242" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="I242" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.3">
@@ -10962,10 +10965,10 @@
         <v>1112</v>
       </c>
       <c r="H243" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="I243" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.3">
@@ -10988,10 +10991,10 @@
         <v>990</v>
       </c>
       <c r="H244" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="I244" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.3">
@@ -11014,10 +11017,10 @@
         <v>1113</v>
       </c>
       <c r="H245" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="I245" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.3">
@@ -11040,10 +11043,10 @@
         <v>1114</v>
       </c>
       <c r="H246" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="I246" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.3">
@@ -11066,10 +11069,10 @@
         <v>1115</v>
       </c>
       <c r="H247" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="I247" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.3">
@@ -11095,7 +11098,7 @@
         <v>1254</v>
       </c>
       <c r="I248" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.3">
@@ -11118,10 +11121,10 @@
         <v>1116</v>
       </c>
       <c r="H249" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="I249" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.3">
@@ -11144,10 +11147,10 @@
         <v>1117</v>
       </c>
       <c r="H250" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="I250" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.3">
@@ -11173,7 +11176,7 @@
         <v>1254</v>
       </c>
       <c r="I251" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.3">
@@ -11196,10 +11199,10 @@
         <v>1119</v>
       </c>
       <c r="H252" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="I252" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.3">
@@ -11225,7 +11228,7 @@
         <v>1232</v>
       </c>
       <c r="I253" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.3">
@@ -11251,7 +11254,7 @@
         <v>1232</v>
       </c>
       <c r="I254" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.3">
@@ -11274,10 +11277,10 @@
         <v>985</v>
       </c>
       <c r="H255" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="I255" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.3">
@@ -11300,10 +11303,10 @@
         <v>985</v>
       </c>
       <c r="H256" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="I256" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.3">
@@ -11326,10 +11329,10 @@
         <v>1120</v>
       </c>
       <c r="H257" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="I257" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.3">
@@ -11352,10 +11355,10 @@
         <v>1121</v>
       </c>
       <c r="H258" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="I258" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.3">
@@ -11378,10 +11381,10 @@
         <v>1122</v>
       </c>
       <c r="H259" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="I259" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.3">
@@ -11404,10 +11407,10 @@
         <v>1123</v>
       </c>
       <c r="H260" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="I260" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.3">
@@ -11430,10 +11433,10 @@
         <v>1124</v>
       </c>
       <c r="H261" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="I261" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.3">
@@ -11456,10 +11459,10 @@
         <v>1125</v>
       </c>
       <c r="H262" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="I262" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.3">
@@ -11482,10 +11485,10 @@
         <v>985</v>
       </c>
       <c r="H263" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="I263" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.3">
@@ -11508,10 +11511,10 @@
         <v>1126</v>
       </c>
       <c r="H264" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="I264" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.3">
@@ -11534,10 +11537,10 @@
         <v>985</v>
       </c>
       <c r="H265" t="s">
-        <v>1390</v>
+        <v>1387</v>
       </c>
       <c r="I265" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.3">
@@ -11560,10 +11563,10 @@
         <v>989</v>
       </c>
       <c r="H266" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="I266" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.3">
@@ -11586,10 +11589,10 @@
         <v>935</v>
       </c>
       <c r="H267" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="I267" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.3">
@@ -11612,10 +11615,10 @@
         <v>975</v>
       </c>
       <c r="H268" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="I268" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.3">
@@ -11638,10 +11641,10 @@
         <v>1127</v>
       </c>
       <c r="H269" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="I269" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.3">
@@ -11664,10 +11667,10 @@
         <v>1128</v>
       </c>
       <c r="H270" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="I270" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.3">
@@ -11690,10 +11693,10 @@
         <v>944</v>
       </c>
       <c r="H271" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="I271" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.3">
@@ -11716,10 +11719,10 @@
         <v>1129</v>
       </c>
       <c r="H272" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="I272" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.3">
@@ -11742,10 +11745,10 @@
         <v>1130</v>
       </c>
       <c r="H273" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="I273" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.3">
@@ -11771,7 +11774,7 @@
         <v>1247</v>
       </c>
       <c r="I274" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.3">
@@ -11797,7 +11800,7 @@
         <v>1247</v>
       </c>
       <c r="I275" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.3">
@@ -11823,7 +11826,7 @@
         <v>1247</v>
       </c>
       <c r="I276" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.3">
@@ -11846,10 +11849,10 @@
         <v>1132</v>
       </c>
       <c r="H277" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="I277" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.3">
@@ -11872,10 +11875,10 @@
         <v>990</v>
       </c>
       <c r="H278" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="I278" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.3">
@@ -11898,10 +11901,10 @@
         <v>1128</v>
       </c>
       <c r="H279" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="I279" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.3">
@@ -11924,10 +11927,10 @@
         <v>1124</v>
       </c>
       <c r="H280" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="I280" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.3">
@@ -11950,10 +11953,10 @@
         <v>1133</v>
       </c>
       <c r="H281" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="I281" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.3">
@@ -11976,10 +11979,10 @@
         <v>1126</v>
       </c>
       <c r="H282" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="I282" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.3">
@@ -12002,10 +12005,10 @@
         <v>1134</v>
       </c>
       <c r="H283" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="I283" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.3">
@@ -12028,10 +12031,10 @@
         <v>1135</v>
       </c>
       <c r="H284" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="I284" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.3">
@@ -12057,10 +12060,10 @@
         <v>1136</v>
       </c>
       <c r="H285" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="I285" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.3">
@@ -12083,10 +12086,10 @@
         <v>975</v>
       </c>
       <c r="H286" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="I286" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.3">
@@ -12109,10 +12112,10 @@
         <v>978</v>
       </c>
       <c r="H287" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="I287" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.3">
@@ -12135,10 +12138,10 @@
         <v>1137</v>
       </c>
       <c r="H288" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="I288" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.3">
@@ -12161,10 +12164,10 @@
         <v>1138</v>
       </c>
       <c r="H289" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="I289" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.3">
@@ -12187,10 +12190,10 @@
         <v>980</v>
       </c>
       <c r="H290" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="I290" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.3">
@@ -12213,10 +12216,10 @@
         <v>1118</v>
       </c>
       <c r="H291" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="I291" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.3">
@@ -12239,10 +12242,10 @@
         <v>985</v>
       </c>
       <c r="H292" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="I292" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.3">
@@ -12268,7 +12271,7 @@
         <v>1247</v>
       </c>
       <c r="I293" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.3">
@@ -12291,10 +12294,10 @@
         <v>1140</v>
       </c>
       <c r="H294" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="I294" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.3">
@@ -12317,10 +12320,10 @@
         <v>1141</v>
       </c>
       <c r="H295" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="I295" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.3">
@@ -12346,7 +12349,7 @@
         <v>1247</v>
       </c>
       <c r="I296" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.3">
@@ -12369,10 +12372,10 @@
         <v>1143</v>
       </c>
       <c r="H297" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="I297" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.3">
@@ -12395,10 +12398,10 @@
         <v>963</v>
       </c>
       <c r="H298" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="I298" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.3">
@@ -12424,10 +12427,10 @@
         <v>1144</v>
       </c>
       <c r="H299" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="I299" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.3">
@@ -12450,10 +12453,10 @@
         <v>1145</v>
       </c>
       <c r="H300" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="I300" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.3">
@@ -12476,10 +12479,10 @@
         <v>966</v>
       </c>
       <c r="H301" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="I301" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.3">
@@ -12505,10 +12508,10 @@
         <v>1146</v>
       </c>
       <c r="H302" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="I302" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.3">
@@ -12531,10 +12534,10 @@
         <v>985</v>
       </c>
       <c r="H303" t="s">
-        <v>1391</v>
+        <v>1388</v>
       </c>
       <c r="I303" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.3">
@@ -12557,10 +12560,10 @@
         <v>1105</v>
       </c>
       <c r="H304" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="I304" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.3">
@@ -12583,10 +12586,10 @@
         <v>1147</v>
       </c>
       <c r="H305" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="I305" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.3">
@@ -12609,10 +12612,10 @@
         <v>1049</v>
       </c>
       <c r="H306" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="I306" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.3">
@@ -12635,10 +12638,10 @@
         <v>1148</v>
       </c>
       <c r="H307" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="I307" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.3">
@@ -12661,10 +12664,10 @@
         <v>1149</v>
       </c>
       <c r="H308" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="I308" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.3">
@@ -12687,10 +12690,10 @@
         <v>1150</v>
       </c>
       <c r="H309" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="I309" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.3">
@@ -12713,10 +12716,10 @@
         <v>1151</v>
       </c>
       <c r="H310" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="I310" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.3">
@@ -12739,10 +12742,10 @@
         <v>1152</v>
       </c>
       <c r="H311" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="I311" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.3">
@@ -12765,10 +12768,10 @@
         <v>1153</v>
       </c>
       <c r="H312" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="I312" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.3">
@@ -12791,10 +12794,10 @@
         <v>1154</v>
       </c>
       <c r="H313" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="I313" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.3">
@@ -12817,10 +12820,10 @@
         <v>987</v>
       </c>
       <c r="H314" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="I314" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.3">
@@ -12843,10 +12846,10 @@
         <v>968</v>
       </c>
       <c r="H315" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="I315" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.3">
@@ -12869,10 +12872,10 @@
         <v>942</v>
       </c>
       <c r="H316" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="I316" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.3">
@@ -12895,10 +12898,10 @@
         <v>1155</v>
       </c>
       <c r="H317" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="I317" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.3">
@@ -12921,10 +12924,10 @@
         <v>990</v>
       </c>
       <c r="H318" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="I318" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.3">
@@ -12947,10 +12950,10 @@
         <v>1156</v>
       </c>
       <c r="H319" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="I319" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.3">
@@ -12973,10 +12976,10 @@
         <v>1157</v>
       </c>
       <c r="H320" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="I320" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.3">
@@ -12999,10 +13002,10 @@
         <v>1150</v>
       </c>
       <c r="H321" t="s">
-        <v>1392</v>
+        <v>1389</v>
       </c>
       <c r="I321" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.3">
@@ -13025,10 +13028,10 @@
         <v>1158</v>
       </c>
       <c r="H322" t="s">
-        <v>1392</v>
+        <v>1389</v>
       </c>
       <c r="I322" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.3">
@@ -13051,10 +13054,10 @@
         <v>1159</v>
       </c>
       <c r="H323" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="I323" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.3">
@@ -13077,10 +13080,10 @@
         <v>975</v>
       </c>
       <c r="H324" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="I324" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.3">
@@ -13103,10 +13106,10 @@
         <v>1160</v>
       </c>
       <c r="H325" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="I325" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.3">
@@ -13129,10 +13132,10 @@
         <v>1120</v>
       </c>
       <c r="H326" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="I326" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.3">
@@ -13155,10 +13158,10 @@
         <v>1121</v>
       </c>
       <c r="H327" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="I327" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.3">
@@ -13184,7 +13187,7 @@
         <v>1249</v>
       </c>
       <c r="I328" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.3">
@@ -13207,10 +13210,10 @@
         <v>1161</v>
       </c>
       <c r="H329" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="I329" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.3">
@@ -13233,10 +13236,10 @@
         <v>1162</v>
       </c>
       <c r="H330" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="I330" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.3">
@@ -13259,10 +13262,10 @@
         <v>1163</v>
       </c>
       <c r="H331" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="I331" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.3">
@@ -13285,10 +13288,10 @@
         <v>991</v>
       </c>
       <c r="H332" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="I332" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.3">
@@ -13311,10 +13314,10 @@
         <v>1164</v>
       </c>
       <c r="H333" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="I333" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.3">
@@ -13337,10 +13340,10 @@
         <v>1165</v>
       </c>
       <c r="H334" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="I334" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.3">
@@ -13363,10 +13366,10 @@
         <v>1166</v>
       </c>
       <c r="H335" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="I335" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.3">
@@ -13389,10 +13392,10 @@
         <v>927</v>
       </c>
       <c r="H336" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="I336" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="337" spans="1:10" x14ac:dyDescent="0.3">
@@ -13415,10 +13418,10 @@
         <v>1167</v>
       </c>
       <c r="H337" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="I337" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="338" spans="1:10" x14ac:dyDescent="0.3">
@@ -13441,10 +13444,10 @@
         <v>987</v>
       </c>
       <c r="H338" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="I338" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="339" spans="1:10" x14ac:dyDescent="0.3">
@@ -13467,13 +13470,13 @@
         <v>942</v>
       </c>
       <c r="H339" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="I339" t="s">
+        <v>1375</v>
+      </c>
+      <c r="J339" t="s">
         <v>1377</v>
-      </c>
-      <c r="J339" t="s">
-        <v>1379</v>
       </c>
     </row>
     <row r="340" spans="1:10" x14ac:dyDescent="0.3">
@@ -13496,10 +13499,10 @@
         <v>1168</v>
       </c>
       <c r="H340" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="I340" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="341" spans="1:10" x14ac:dyDescent="0.3">
@@ -13522,10 +13525,10 @@
         <v>1169</v>
       </c>
       <c r="H341" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="I341" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="342" spans="1:10" x14ac:dyDescent="0.3">
@@ -13548,10 +13551,10 @@
         <v>1170</v>
       </c>
       <c r="H342" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="I342" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="343" spans="1:10" x14ac:dyDescent="0.3">
@@ -13574,10 +13577,10 @@
         <v>1171</v>
       </c>
       <c r="H343" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="I343" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="344" spans="1:10" x14ac:dyDescent="0.3">
@@ -13600,10 +13603,10 @@
         <v>985</v>
       </c>
       <c r="H344" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="I344" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="345" spans="1:10" x14ac:dyDescent="0.3">
@@ -13626,10 +13629,10 @@
         <v>1105</v>
       </c>
       <c r="H345" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="I345" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="346" spans="1:10" x14ac:dyDescent="0.3">
@@ -13652,10 +13655,10 @@
         <v>1172</v>
       </c>
       <c r="H346" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="I346" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="347" spans="1:10" x14ac:dyDescent="0.3">
@@ -13678,10 +13681,10 @@
         <v>1173</v>
       </c>
       <c r="H347" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="I347" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="348" spans="1:10" x14ac:dyDescent="0.3">
@@ -13704,13 +13707,13 @@
         <v>968</v>
       </c>
       <c r="H348" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="I348" t="s">
+        <v>1375</v>
+      </c>
+      <c r="J348" t="s">
         <v>1377</v>
-      </c>
-      <c r="J348" t="s">
-        <v>1379</v>
       </c>
     </row>
     <row r="349" spans="1:10" x14ac:dyDescent="0.3">
@@ -13733,10 +13736,10 @@
         <v>985</v>
       </c>
       <c r="H349" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="I349" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="350" spans="1:10" x14ac:dyDescent="0.3">
@@ -13759,10 +13762,10 @@
         <v>980</v>
       </c>
       <c r="H350" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="I350" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="351" spans="1:10" x14ac:dyDescent="0.3">
@@ -13788,7 +13791,7 @@
         <v>1254</v>
       </c>
       <c r="I351" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="352" spans="1:10" x14ac:dyDescent="0.3">
@@ -13814,7 +13817,7 @@
         <v>1254</v>
       </c>
       <c r="I352" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="353" spans="1:12" x14ac:dyDescent="0.3">
@@ -13837,13 +13840,13 @@
         <v>1175</v>
       </c>
       <c r="H353" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="I353" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="J353" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="354" spans="1:12" x14ac:dyDescent="0.3">
@@ -13866,13 +13869,13 @@
         <v>1176</v>
       </c>
       <c r="H354" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="I354" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="J354" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="355" spans="1:12" x14ac:dyDescent="0.3">
@@ -13895,19 +13898,19 @@
         <v>1142</v>
       </c>
       <c r="H355" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="I355" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="J355" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
       <c r="K355" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="L355" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="356" spans="1:12" x14ac:dyDescent="0.3">
@@ -13930,10 +13933,10 @@
         <v>1177</v>
       </c>
       <c r="H356" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="I356" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="357" spans="1:12" x14ac:dyDescent="0.3">
@@ -13956,10 +13959,10 @@
         <v>1178</v>
       </c>
       <c r="H357" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="I357" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="358" spans="1:12" x14ac:dyDescent="0.3">
@@ -13982,10 +13985,10 @@
         <v>1179</v>
       </c>
       <c r="H358" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="I358" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="359" spans="1:12" x14ac:dyDescent="0.3">
@@ -14008,10 +14011,10 @@
         <v>1180</v>
       </c>
       <c r="H359" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="I359" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="360" spans="1:12" x14ac:dyDescent="0.3">
@@ -14034,10 +14037,10 @@
         <v>1181</v>
       </c>
       <c r="H360" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="I360" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="361" spans="1:12" x14ac:dyDescent="0.3">
@@ -14063,10 +14066,10 @@
         <v>1182</v>
       </c>
       <c r="H361" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="I361" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="362" spans="1:12" x14ac:dyDescent="0.3">
@@ -14092,10 +14095,10 @@
         <v>943</v>
       </c>
       <c r="H362" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="I362" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="363" spans="1:12" x14ac:dyDescent="0.3">
@@ -14121,10 +14124,10 @@
         <v>1183</v>
       </c>
       <c r="H363" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="I363" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="364" spans="1:12" x14ac:dyDescent="0.3">
@@ -14147,10 +14150,10 @@
         <v>1184</v>
       </c>
       <c r="H364" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="I364" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="365" spans="1:12" x14ac:dyDescent="0.3">
@@ -14173,10 +14176,10 @@
         <v>955</v>
       </c>
       <c r="H365" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="I365" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="366" spans="1:12" x14ac:dyDescent="0.3">
@@ -14199,10 +14202,10 @@
         <v>1170</v>
       </c>
       <c r="H366" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="I366" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="367" spans="1:12" x14ac:dyDescent="0.3">
@@ -14225,10 +14228,10 @@
         <v>1185</v>
       </c>
       <c r="H367" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="I367" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="368" spans="1:12" x14ac:dyDescent="0.3">
@@ -14251,10 +14254,10 @@
         <v>1186</v>
       </c>
       <c r="H368" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="I368" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="369" spans="1:9" x14ac:dyDescent="0.3">
@@ -14277,10 +14280,10 @@
         <v>1021</v>
       </c>
       <c r="H369" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="I369" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="370" spans="1:9" x14ac:dyDescent="0.3">
@@ -14303,10 +14306,10 @@
         <v>1187</v>
       </c>
       <c r="H370" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="I370" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="371" spans="1:9" x14ac:dyDescent="0.3">
@@ -14329,10 +14332,10 @@
         <v>990</v>
       </c>
       <c r="H371" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="I371" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="372" spans="1:9" x14ac:dyDescent="0.3">
@@ -14355,10 +14358,10 @@
         <v>1188</v>
       </c>
       <c r="H372" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="I372" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="373" spans="1:9" x14ac:dyDescent="0.3">
@@ -14381,10 +14384,10 @@
         <v>1189</v>
       </c>
       <c r="H373" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="I373" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="374" spans="1:9" x14ac:dyDescent="0.3">
@@ -14407,10 +14410,10 @@
         <v>991</v>
       </c>
       <c r="H374" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="I374" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="375" spans="1:9" x14ac:dyDescent="0.3">
@@ -14433,10 +14436,10 @@
         <v>985</v>
       </c>
       <c r="H375" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="I375" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="376" spans="1:9" x14ac:dyDescent="0.3">
@@ -14459,10 +14462,10 @@
         <v>985</v>
       </c>
       <c r="H376" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="I376" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="377" spans="1:9" x14ac:dyDescent="0.3">
@@ -14485,10 +14488,10 @@
         <v>1177</v>
       </c>
       <c r="H377" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="I377" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="378" spans="1:9" x14ac:dyDescent="0.3">
@@ -14511,10 +14514,10 @@
         <v>1190</v>
       </c>
       <c r="H378" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="I378" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="379" spans="1:9" x14ac:dyDescent="0.3">
@@ -14537,10 +14540,10 @@
         <v>985</v>
       </c>
       <c r="H379" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="I379" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="380" spans="1:9" x14ac:dyDescent="0.3">
@@ -14566,10 +14569,10 @@
         <v>1085</v>
       </c>
       <c r="H380" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="I380" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="381" spans="1:9" x14ac:dyDescent="0.3">
@@ -14592,10 +14595,10 @@
         <v>1131</v>
       </c>
       <c r="H381" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="I381" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="382" spans="1:9" x14ac:dyDescent="0.3">
@@ -14618,10 +14621,10 @@
         <v>1021</v>
       </c>
       <c r="H382" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="I382" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="383" spans="1:9" x14ac:dyDescent="0.3">
@@ -14644,10 +14647,10 @@
         <v>1021</v>
       </c>
       <c r="H383" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="I383" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="384" spans="1:9" x14ac:dyDescent="0.3">
@@ -14670,10 +14673,10 @@
         <v>1186</v>
       </c>
       <c r="H384" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="I384" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="385" spans="1:9" x14ac:dyDescent="0.3">
@@ -14696,10 +14699,10 @@
         <v>940</v>
       </c>
       <c r="H385" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="I385" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="386" spans="1:9" x14ac:dyDescent="0.3">
@@ -14722,10 +14725,10 @@
         <v>1191</v>
       </c>
       <c r="H386" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="I386" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="387" spans="1:9" x14ac:dyDescent="0.3">
@@ -14748,10 +14751,10 @@
         <v>1023</v>
       </c>
       <c r="H387" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="I387" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="388" spans="1:9" x14ac:dyDescent="0.3">
@@ -14774,10 +14777,10 @@
         <v>1192</v>
       </c>
       <c r="H388" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="I388" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="389" spans="1:9" x14ac:dyDescent="0.3">
@@ -14800,10 +14803,10 @@
         <v>1193</v>
       </c>
       <c r="H389" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="I389" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="390" spans="1:9" x14ac:dyDescent="0.3">
@@ -14826,10 +14829,10 @@
         <v>1194</v>
       </c>
       <c r="H390" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="I390" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="391" spans="1:9" x14ac:dyDescent="0.3">
@@ -14852,10 +14855,10 @@
         <v>1195</v>
       </c>
       <c r="H391" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="I391" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="392" spans="1:9" x14ac:dyDescent="0.3">
@@ -14878,10 +14881,10 @@
         <v>1196</v>
       </c>
       <c r="H392" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="I392" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="393" spans="1:9" x14ac:dyDescent="0.3">
@@ -14904,10 +14907,10 @@
         <v>985</v>
       </c>
       <c r="H393" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="I393" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="394" spans="1:9" x14ac:dyDescent="0.3">
@@ -14930,10 +14933,10 @@
         <v>985</v>
       </c>
       <c r="H394" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="I394" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="395" spans="1:9" x14ac:dyDescent="0.3">
@@ -14956,10 +14959,10 @@
         <v>980</v>
       </c>
       <c r="H395" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="I395" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="396" spans="1:9" x14ac:dyDescent="0.3">
@@ -14982,10 +14985,10 @@
         <v>985</v>
       </c>
       <c r="H396" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="I396" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="397" spans="1:9" x14ac:dyDescent="0.3">
@@ -15008,10 +15011,10 @@
         <v>980</v>
       </c>
       <c r="H397" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="I397" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="398" spans="1:9" x14ac:dyDescent="0.3">
@@ -15034,10 +15037,10 @@
         <v>980</v>
       </c>
       <c r="H398" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="I398" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="399" spans="1:9" x14ac:dyDescent="0.3">
@@ -15060,10 +15063,10 @@
         <v>1197</v>
       </c>
       <c r="H399" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="I399" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="400" spans="1:9" x14ac:dyDescent="0.3">
@@ -15089,10 +15092,10 @@
         <v>1198</v>
       </c>
       <c r="H400" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="I400" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="401" spans="1:10" x14ac:dyDescent="0.3">
@@ -15118,10 +15121,10 @@
         <v>1199</v>
       </c>
       <c r="H401" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="I401" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="402" spans="1:10" x14ac:dyDescent="0.3">
@@ -15147,10 +15150,10 @@
         <v>989</v>
       </c>
       <c r="H402" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="I402" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="403" spans="1:10" x14ac:dyDescent="0.3">
@@ -15176,10 +15179,10 @@
         <v>1200</v>
       </c>
       <c r="H403" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="I403" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="404" spans="1:10" x14ac:dyDescent="0.3">
@@ -15205,10 +15208,10 @@
         <v>1201</v>
       </c>
       <c r="H404" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="I404" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="405" spans="1:10" x14ac:dyDescent="0.3">
@@ -15234,10 +15237,10 @@
         <v>1201</v>
       </c>
       <c r="H405" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="I405" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="406" spans="1:10" x14ac:dyDescent="0.3">
@@ -15263,10 +15266,10 @@
         <v>985</v>
       </c>
       <c r="H406" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="I406" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="407" spans="1:10" x14ac:dyDescent="0.3">
@@ -15292,10 +15295,10 @@
         <v>1202</v>
       </c>
       <c r="H407" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="I407" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="408" spans="1:10" x14ac:dyDescent="0.3">
@@ -15321,10 +15324,10 @@
         <v>1203</v>
       </c>
       <c r="H408" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="I408" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="409" spans="1:10" x14ac:dyDescent="0.3">
@@ -15350,10 +15353,10 @@
         <v>1204</v>
       </c>
       <c r="H409" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="I409" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="410" spans="1:10" x14ac:dyDescent="0.3">
@@ -15379,10 +15382,10 @@
         <v>975</v>
       </c>
       <c r="H410" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="I410" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="411" spans="1:10" x14ac:dyDescent="0.3">
@@ -15408,10 +15411,10 @@
         <v>1205</v>
       </c>
       <c r="H411" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="I411" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="412" spans="1:10" x14ac:dyDescent="0.3">
@@ -15437,10 +15440,10 @@
         <v>1021</v>
       </c>
       <c r="H412" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="I412" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="413" spans="1:10" x14ac:dyDescent="0.3">
@@ -15466,10 +15469,10 @@
         <v>935</v>
       </c>
       <c r="H413" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="I413" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="414" spans="1:10" x14ac:dyDescent="0.3">
@@ -15495,10 +15498,10 @@
         <v>985</v>
       </c>
       <c r="H414" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="I414" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="415" spans="1:10" x14ac:dyDescent="0.3">
@@ -15524,10 +15527,10 @@
         <v>985</v>
       </c>
       <c r="H415" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="I415" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="416" spans="1:10" x14ac:dyDescent="0.3">
@@ -15553,10 +15556,10 @@
         <v>1251</v>
       </c>
       <c r="I416" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="J416" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="417" spans="1:12" x14ac:dyDescent="0.3">
@@ -15582,10 +15585,10 @@
         <v>1251</v>
       </c>
       <c r="I417" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="J417" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="418" spans="1:12" x14ac:dyDescent="0.3">
@@ -15611,10 +15614,10 @@
         <v>1251</v>
       </c>
       <c r="I418" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="J418" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="419" spans="1:12" x14ac:dyDescent="0.3">
@@ -15640,10 +15643,10 @@
         <v>1251</v>
       </c>
       <c r="I419" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="J419" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="420" spans="1:12" x14ac:dyDescent="0.3">
@@ -15669,16 +15672,16 @@
         <v>1251</v>
       </c>
       <c r="I420" t="s">
+        <v>1374</v>
+      </c>
+      <c r="J420" t="s">
+        <v>1377</v>
+      </c>
+      <c r="K420" t="s">
+        <v>1341</v>
+      </c>
+      <c r="L420" t="s">
         <v>1376</v>
-      </c>
-      <c r="J420" t="s">
-        <v>1379</v>
-      </c>
-      <c r="K420" t="s">
-        <v>1343</v>
-      </c>
-      <c r="L420" t="s">
-        <v>1378</v>
       </c>
     </row>
     <row r="421" spans="1:12" x14ac:dyDescent="0.3">
@@ -15704,10 +15707,10 @@
         <v>975</v>
       </c>
       <c r="H421" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="I421" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="422" spans="1:12" x14ac:dyDescent="0.3">
@@ -15730,10 +15733,10 @@
         <v>980</v>
       </c>
       <c r="H422" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="I422" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="423" spans="1:12" x14ac:dyDescent="0.3">
@@ -15756,10 +15759,10 @@
         <v>980</v>
       </c>
       <c r="H423" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="I423" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="424" spans="1:12" x14ac:dyDescent="0.3">
@@ -15782,10 +15785,10 @@
         <v>1208</v>
       </c>
       <c r="H424" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="I424" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="425" spans="1:12" x14ac:dyDescent="0.3">
@@ -15808,10 +15811,10 @@
         <v>1209</v>
       </c>
       <c r="H425" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="I425" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="426" spans="1:12" x14ac:dyDescent="0.3">
@@ -15834,10 +15837,10 @@
         <v>1210</v>
       </c>
       <c r="H426" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="I426" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="427" spans="1:12" x14ac:dyDescent="0.3">
@@ -15860,10 +15863,10 @@
         <v>1211</v>
       </c>
       <c r="H427" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="I427" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="428" spans="1:12" x14ac:dyDescent="0.3">
@@ -15886,10 +15889,10 @@
         <v>1212</v>
       </c>
       <c r="H428" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="I428" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="429" spans="1:12" x14ac:dyDescent="0.3">
@@ -15912,10 +15915,10 @@
         <v>1213</v>
       </c>
       <c r="H429" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="I429" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="430" spans="1:12" x14ac:dyDescent="0.3">
@@ -15938,10 +15941,10 @@
         <v>1214</v>
       </c>
       <c r="H430" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="I430" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="431" spans="1:12" x14ac:dyDescent="0.3">
@@ -15964,10 +15967,10 @@
         <v>1215</v>
       </c>
       <c r="H431" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="I431" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="432" spans="1:12" x14ac:dyDescent="0.3">
@@ -15990,10 +15993,10 @@
         <v>1216</v>
       </c>
       <c r="H432" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="I432" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="433" spans="1:14" x14ac:dyDescent="0.3">
@@ -16016,10 +16019,10 @@
         <v>1217</v>
       </c>
       <c r="H433" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="I433" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="434" spans="1:14" x14ac:dyDescent="0.3">
@@ -16042,10 +16045,10 @@
         <v>1218</v>
       </c>
       <c r="H434" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="I434" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="435" spans="1:14" x14ac:dyDescent="0.3">
@@ -16068,10 +16071,10 @@
         <v>1219</v>
       </c>
       <c r="H435" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="I435" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="436" spans="1:14" x14ac:dyDescent="0.3">
@@ -16094,10 +16097,10 @@
         <v>1134</v>
       </c>
       <c r="H436" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="I436" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="437" spans="1:14" x14ac:dyDescent="0.3">
@@ -16120,10 +16123,10 @@
         <v>1005</v>
       </c>
       <c r="H437" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="I437" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="438" spans="1:14" x14ac:dyDescent="0.3">
@@ -16149,10 +16152,10 @@
         <v>1220</v>
       </c>
       <c r="H438" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="I438" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="439" spans="1:14" x14ac:dyDescent="0.3">
@@ -16175,16 +16178,16 @@
         <v>1221</v>
       </c>
       <c r="H439" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="I439" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="K439" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="L439" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="440" spans="1:14" x14ac:dyDescent="0.3">
@@ -16207,22 +16210,22 @@
         <v>1222</v>
       </c>
       <c r="H440" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="I440" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="K440" t="s">
+        <v>1348</v>
+      </c>
+      <c r="L440" t="s">
+        <v>1375</v>
+      </c>
+      <c r="M440" t="s">
         <v>1350</v>
       </c>
-      <c r="L440" t="s">
-        <v>1377</v>
-      </c>
-      <c r="M440" t="s">
-        <v>1352</v>
-      </c>
       <c r="N440" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="441" spans="1:14" x14ac:dyDescent="0.3">
@@ -16245,10 +16248,10 @@
         <v>985</v>
       </c>
       <c r="H441" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="I441" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="442" spans="1:14" x14ac:dyDescent="0.3">
@@ -16271,10 +16274,10 @@
         <v>1223</v>
       </c>
       <c r="H442" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="I442" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="443" spans="1:14" x14ac:dyDescent="0.3">
@@ -16297,10 +16300,10 @@
         <v>985</v>
       </c>
       <c r="H443" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="I443" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="444" spans="1:14" x14ac:dyDescent="0.3">
@@ -16323,10 +16326,10 @@
         <v>980</v>
       </c>
       <c r="H444" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="I444" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="445" spans="1:14" x14ac:dyDescent="0.3">
@@ -16349,10 +16352,10 @@
         <v>985</v>
       </c>
       <c r="H445" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="I445" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="446" spans="1:14" x14ac:dyDescent="0.3">
@@ -16375,10 +16378,10 @@
         <v>1224</v>
       </c>
       <c r="H446" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="I446" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="447" spans="1:14" x14ac:dyDescent="0.3">
@@ -16401,10 +16404,10 @@
         <v>985</v>
       </c>
       <c r="H447" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="I447" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="448" spans="1:14" x14ac:dyDescent="0.3">
@@ -16427,10 +16430,10 @@
         <v>985</v>
       </c>
       <c r="H448" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="I448" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="449" spans="1:9" x14ac:dyDescent="0.3">
@@ -16453,10 +16456,10 @@
         <v>980</v>
       </c>
       <c r="H449" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="I449" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="450" spans="1:9" x14ac:dyDescent="0.3">
@@ -16479,10 +16482,10 @@
         <v>980</v>
       </c>
       <c r="H450" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="I450" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="451" spans="1:9" x14ac:dyDescent="0.3">
@@ -16505,10 +16508,10 @@
         <v>1135</v>
       </c>
       <c r="H451" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="I451" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="452" spans="1:9" x14ac:dyDescent="0.3">
@@ -16531,10 +16534,10 @@
         <v>1225</v>
       </c>
       <c r="H452" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="I452" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="453" spans="1:9" x14ac:dyDescent="0.3">
@@ -16557,10 +16560,10 @@
         <v>1062</v>
       </c>
       <c r="H453" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="I453" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="454" spans="1:9" x14ac:dyDescent="0.3">
@@ -16583,10 +16586,10 @@
         <v>1226</v>
       </c>
       <c r="H454" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="I454" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="455" spans="1:9" x14ac:dyDescent="0.3">
@@ -16609,10 +16612,10 @@
         <v>1227</v>
       </c>
       <c r="H455" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="I455" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="456" spans="1:9" x14ac:dyDescent="0.3">
@@ -16635,10 +16638,10 @@
         <v>1005</v>
       </c>
       <c r="H456" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="I456" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="457" spans="1:9" x14ac:dyDescent="0.3">
@@ -16661,10 +16664,10 @@
         <v>1146</v>
       </c>
       <c r="H457" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="I457" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="458" spans="1:9" x14ac:dyDescent="0.3">
@@ -16687,10 +16690,10 @@
         <v>980</v>
       </c>
       <c r="H458" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="I458" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="459" spans="1:9" x14ac:dyDescent="0.3">
@@ -16713,10 +16716,10 @@
         <v>985</v>
       </c>
       <c r="H459" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="I459" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="460" spans="1:9" x14ac:dyDescent="0.3">
@@ -16739,10 +16742,10 @@
         <v>980</v>
       </c>
       <c r="H460" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="I460" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
     </row>
   </sheetData>
